--- a/학습자료/단답형/객관식_영어_유의어_Day02.xlsx
+++ b/학습자료/단답형/객관식_영어_유의어_Day02.xlsx
@@ -449,14 +449,14 @@
       <c r="A2" t="inlineStr">
         <is>
           <t>reputable
-1. 만족, 희열
-2. 평판 좋은, 존경할 만한
-3. 계속하다</t>
+1. 평판 좋은, 존경할 만한
+2. 배열하다, 일렬로 세우다
+3. 침입하다, 난입하다</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2, 평판 좋은, 존경할 만한</t>
+          <t>1, 평판 좋은, 존경할 만한</t>
         </is>
       </c>
     </row>
@@ -464,14 +464,14 @@
       <c r="A3" t="inlineStr">
         <is>
           <t>prestigious
-1. 배열하다, 일렬로 세우다
-2. 평판 좋은, 존경할 만한
-3. 만족, 희열</t>
+1. 자신감 있는
+2. 만족, 희열
+3. 평판 좋은, 존경할 만한</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2, 평판 좋은, 존경할 만한</t>
+          <t>3, 평판 좋은, 존경할 만한</t>
         </is>
       </c>
     </row>
@@ -479,8 +479,8 @@
       <c r="A4" t="inlineStr">
         <is>
           <t>creditable
-1. 신뢰, 확신
-2. 나눠주다, 분배하다
+1. 침입하다, 난입하다
+2. 생기, 활기
 3. 평판 좋은, 존경할 만한</t>
         </is>
       </c>
@@ -494,44 +494,44 @@
       <c r="A5" t="inlineStr">
         <is>
           <t>respectable
+1. 평판 좋은, 존경할 만한
+2. 배열하다, 일렬로 세우다
+3. 침입하다, 난입하다</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>1, 평판 좋은, 존경할 만한</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>venerable
+1. 나눠주다, 분배하다
+2. 평판 좋은, 존경할 만한
+3. 고요, 평온</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2, 평판 좋은, 존경할 만한</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>confident
 1. 자신감 있는
 2. 평판 좋은, 존경할 만한
-3. 배열하다, 일렬로 세우다</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>2, 평판 좋은, 존경할 만한</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>venerable
-1. 자신감 있는
-2. 나눠주다, 분배하다
-3. 평판 좋은, 존경할 만한</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>3, 평판 좋은, 존경할 만한</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>confident
-1. 신뢰, 확신
-2. 계속하다
-3. 자신감 있는</t>
+3. 생기, 활기</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>3, 자신감 있는</t>
+          <t>1, 자신감 있는</t>
         </is>
       </c>
     </row>
@@ -539,221 +539,221 @@
       <c r="A8" t="inlineStr">
         <is>
           <t>assured
+1. 만족, 희열
+2. 자신감 있는
+3. 침입하다, 난입하다</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>2, 자신감 있는</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>assertive
+1. 생기, 활기
+2. 신뢰, 확신
+3. 자신감 있는</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>3, 자신감 있는</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>sanguine
+1. 고요, 평온
+2. 신뢰, 확신
+3. 자신감 있는</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>3, 자신감 있는</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>buoyant
+1. 자신감 있는
+2. 침입하다, 난입하다
+3. 나눠주다, 분배하다</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>1, 자신감 있는</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>line up
+1. 계속하다
+2. 침입하다, 난입하다
+3. 배열하다, 일렬로 세우다</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>3, 배열하다, 일렬로 세우다</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>arrange
+1. 계속하다
+2. 배열하다, 일렬로 세우다
+3. 고요, 평온</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>2, 배열하다, 일렬로 세우다</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>array
+1. 배열하다, 일렬로 세우다
+2. 생기, 활기
+3. 신뢰, 확신</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>1, 배열하다, 일렬로 세우다</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>sequence
+1. 신뢰, 확신
+2. 배열하다, 일렬로 세우다
+3. 만족, 희열</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>2, 배열하다, 일렬로 세우다</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>align
+1. 계속하다
+2. 신뢰, 확신
+3. 배열하다, 일렬로 세우다</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>3, 배열하다, 일렬로 세우다</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>give out
+1. 생기, 활기
+2. 신뢰, 확신
+3. 나눠주다, 분배하다</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>3, 나눠주다, 분배하다</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>hand out
+1. 나눠주다, 분배하다
+2. 신뢰, 확신
+3. 침입하다, 난입하다</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>1, 나눠주다, 분배하다</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>give away
+1. 생기, 활기
+2. 자신감 있는
+3. 나눠주다, 분배하다</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>3, 나눠주다, 분배하다</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>deal out
+1. 나눠주다, 분배하다
+2. 고요, 평온
+3. 계속하다</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>1, 나눠주다, 분배하다</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>serve out
+1. 나눠주다, 분배하다
+2. 계속하다
+3. 고요, 평온</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>1, 나눠주다, 분배하다</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>carry on
 1. 나눠주다, 분배하다
 2. 계속하다
 3. 자신감 있는</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>3, 자신감 있는</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>assertive
-1. 배열하다, 일렬로 세우다
-2. 평판 좋은, 존경할 만한
-3. 자신감 있는</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>3, 자신감 있는</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>sanguine
-1. 고요, 평온
-2. 배열하다, 일렬로 세우다
-3. 자신감 있는</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>3, 자신감 있는</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>buoyant
-1. 나눠주다, 분배하다
-2. 생기, 활기
-3. 자신감 있는</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>3, 자신감 있는</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>line up
-1. 자신감 있는
-2. 배열하다, 일렬로 세우다
-3. 고요, 평온</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>2, 배열하다, 일렬로 세우다</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>arrange
-1. 배열하다, 일렬로 세우다
-2. 자신감 있는
-3. 생기, 활기</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>1, 배열하다, 일렬로 세우다</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>array
-1. 배열하다, 일렬로 세우다
-2. 침입하다, 난입하다
-3. 평판 좋은, 존경할 만한</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>1, 배열하다, 일렬로 세우다</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>sequence
-1. 나눠주다, 분배하다
-2. 신뢰, 확신
-3. 배열하다, 일렬로 세우다</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>3, 배열하다, 일렬로 세우다</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>align
-1. 배열하다, 일렬로 세우다
-2. 만족, 희열
-3. 신뢰, 확신</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>1, 배열하다, 일렬로 세우다</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>give out
-1. 평판 좋은, 존경할 만한
-2. 신뢰, 확신
-3. 나눠주다, 분배하다</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>3, 나눠주다, 분배하다</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>hand out
-1. 배열하다, 일렬로 세우다
-2. 만족, 희열
-3. 나눠주다, 분배하다</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>3, 나눠주다, 분배하다</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>give away
-1. 나눠주다, 분배하다
-2. 신뢰, 확신
-3. 배열하다, 일렬로 세우다</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>1, 나눠주다, 분배하다</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>deal out
-1. 계속하다
-2. 나눠주다, 분배하다
-3. 만족, 희열</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>2, 나눠주다, 분배하다</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>serve out
-1. 나눠주다, 분배하다
-2. 생기, 활기
-3. 만족, 희열</t>
-        </is>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>1, 나눠주다, 분배하다</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>carry on
-1. 신뢰, 확신
-2. 계속하다
-3. 배열하다, 일렬로 세우다</t>
-        </is>
-      </c>
       <c r="B22" t="inlineStr">
         <is>
           <t>2, 계속하다</t>
@@ -764,29 +764,29 @@
       <c r="A23" t="inlineStr">
         <is>
           <t>keep on
-1. 배열하다, 일렬로 세우다
+1. 계속하다
+2. 고요, 평온
+3. 배열하다, 일렬로 세우다</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>1, 계속하다</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>go on
+1. 자신감 있는
 2. 고요, 평온
 3. 계속하다</t>
         </is>
       </c>
-      <c r="B23" t="inlineStr">
+      <c r="B24" t="inlineStr">
         <is>
           <t>3, 계속하다</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>go on
-1. 계속하다
-2. 만족, 희열
-3. 자신감 있는</t>
-        </is>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>1, 계속하다</t>
         </is>
       </c>
     </row>
@@ -794,14 +794,14 @@
       <c r="A25" t="inlineStr">
         <is>
           <t>stick at
-1. 자신감 있는
-2. 생기, 활기
-3. 계속하다</t>
+1. 평판 좋은, 존경할 만한
+2. 계속하다
+3. 만족, 희열</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>3, 계속하다</t>
+          <t>2, 계속하다</t>
         </is>
       </c>
     </row>
@@ -809,14 +809,14 @@
       <c r="A26" t="inlineStr">
         <is>
           <t>continue
-1. 계속하다
-2. 자신감 있는
-3. 평판 좋은, 존경할 만한</t>
+1. 평판 좋은, 존경할 만한
+2. 계속하다
+3. 자신감 있는</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>1, 계속하다</t>
+          <t>2, 계속하다</t>
         </is>
       </c>
     </row>
@@ -824,14 +824,14 @@
       <c r="A27" t="inlineStr">
         <is>
           <t>break out
-1. 침입하다, 난입하다
-2. 계속하다
+1. 신뢰, 확신
+2. 침입하다, 난입하다
 3. 만족, 희열</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>1, 침입하다, 난입하다</t>
+          <t>2, 침입하다, 난입하다</t>
         </is>
       </c>
     </row>
@@ -856,7 +856,7 @@
           <t>rush into
 1. 나눠주다, 분배하다
 2. 침입하다, 난입하다
-3. 생기, 활기</t>
+3. 자신감 있는</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -869,14 +869,14 @@
       <c r="A30" t="inlineStr">
         <is>
           <t>invade
-1. 만족, 희열
-2. 자신감 있는
-3. 침입하다, 난입하다</t>
+1. 자신감 있는
+2. 침입하다, 난입하다
+3. 평판 좋은, 존경할 만한</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>3, 침입하다, 난입하다</t>
+          <t>2, 침입하다, 난입하다</t>
         </is>
       </c>
     </row>
@@ -884,101 +884,101 @@
       <c r="A31" t="inlineStr">
         <is>
           <t>trespass
-1. 고요, 평온
+1. 침입하다, 난입하다
+2. 평판 좋은, 존경할 만한
+3. 만족, 희열</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>1, 침입하다, 난입하다</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>gratification
+1. 계속하다
+2. 만족, 희열
+3. 나눠주다, 분배하다</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>2, 만족, 희열</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>satisfaction
+1. 침입하다, 난입하다
+2. 만족, 희열
+3. 자신감 있는</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>2, 만족, 희열</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>contentment
+1. 침입하다, 난입하다
+2. 나눠주다, 분배하다
+3. 만족, 희열</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>3, 만족, 희열</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>euphoria
+1. 만족, 희열
+2. 나눠주다, 분배하다
+3. 생기, 활기</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>1, 만족, 희열</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>delight
+1. 평판 좋은, 존경할 만한
+2. 만족, 희열
+3. 침입하다, 난입하다</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>2, 만족, 희열</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>liveliness
+1. 평판 좋은, 존경할 만한
 2. 침입하다, 난입하다
 3. 생기, 활기</t>
         </is>
       </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>2, 침입하다, 난입하다</t>
-        </is>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
-        <is>
-          <t>gratification
-1. 자신감 있는
-2. 만족, 희열
-3. 침입하다, 난입하다</t>
-        </is>
-      </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>2, 만족, 희열</t>
-        </is>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="inlineStr">
-        <is>
-          <t>satisfaction
-1. 평판 좋은, 존경할 만한
-2. 나눠주다, 분배하다
-3. 만족, 희열</t>
-        </is>
-      </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>3, 만족, 희열</t>
-        </is>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="inlineStr">
-        <is>
-          <t>contentment
-1. 고요, 평온
-2. 계속하다
-3. 만족, 희열</t>
-        </is>
-      </c>
-      <c r="B34" t="inlineStr">
-        <is>
-          <t>3, 만족, 희열</t>
-        </is>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="inlineStr">
-        <is>
-          <t>euphoria
-1. 만족, 희열
-2. 고요, 평온
-3. 자신감 있는</t>
-        </is>
-      </c>
-      <c r="B35" t="inlineStr">
-        <is>
-          <t>1, 만족, 희열</t>
-        </is>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="inlineStr">
-        <is>
-          <t>delight
-1. 나눠주다, 분배하다
-2. 만족, 희열
-3. 고요, 평온</t>
-        </is>
-      </c>
-      <c r="B36" t="inlineStr">
-        <is>
-          <t>2, 만족, 희열</t>
-        </is>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="inlineStr">
-        <is>
-          <t>liveliness
-1. 계속하다
-2. 침입하다, 난입하다
-3. 생기, 활기</t>
-        </is>
-      </c>
       <c r="B37" t="inlineStr">
         <is>
           <t>3, 생기, 활기</t>
@@ -989,14 +989,14 @@
       <c r="A38" t="inlineStr">
         <is>
           <t>spring
-1. 고요, 평온
-2. 생기, 활기
+1. 생기, 활기
+2. 배열하다, 일렬로 세우다
 3. 만족, 희열</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>2, 생기, 활기</t>
+          <t>1, 생기, 활기</t>
         </is>
       </c>
     </row>
@@ -1004,14 +1004,14 @@
       <c r="A39" t="inlineStr">
         <is>
           <t>sparkle
-1. 평판 좋은, 존경할 만한
-2. 배열하다, 일렬로 세우다
-3. 생기, 활기</t>
+1. 생기, 활기
+2. 평판 좋은, 존경할 만한
+3. 계속하다</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>3, 생기, 활기</t>
+          <t>1, 생기, 활기</t>
         </is>
       </c>
     </row>
@@ -1019,14 +1019,14 @@
       <c r="A40" t="inlineStr">
         <is>
           <t>vivacity
-1. 자신감 있는
-2. 생기, 활기
-3. 만족, 희열</t>
+1. 생기, 활기
+2. 신뢰, 확신
+3. 평판 좋은, 존경할 만한</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>2, 생기, 활기</t>
+          <t>1, 생기, 활기</t>
         </is>
       </c>
     </row>
@@ -1034,8 +1034,8 @@
       <c r="A41" t="inlineStr">
         <is>
           <t>vigor
-1. 신뢰, 확신
-2. 침입하다, 난입하다
+1. 계속하다
+2. 평판 좋은, 존경할 만한
 3. 생기, 활기</t>
         </is>
       </c>
@@ -1049,14 +1049,14 @@
       <c r="A42" t="inlineStr">
         <is>
           <t>confidence
-1. 만족, 희열
-2. 자신감 있는
-3. 신뢰, 확신</t>
+1. 평판 좋은, 존경할 만한
+2. 신뢰, 확신
+3. 나눠주다, 분배하다</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>3, 신뢰, 확신</t>
+          <t>2, 신뢰, 확신</t>
         </is>
       </c>
     </row>
@@ -1064,14 +1064,14 @@
       <c r="A43" t="inlineStr">
         <is>
           <t>faith
-1. 신뢰, 확신
-2. 평판 좋은, 존경할 만한
-3. 배열하다, 일렬로 세우다</t>
+1. 배열하다, 일렬로 세우다
+2. 신뢰, 확신
+3. 생기, 활기</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>1, 신뢰, 확신</t>
+          <t>2, 신뢰, 확신</t>
         </is>
       </c>
     </row>
@@ -1081,7 +1081,7 @@
           <t>credence
 1. 신뢰, 확신
 2. 생기, 활기
-3. 침입하다, 난입하다</t>
+3. 만족, 희열</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -1094,14 +1094,14 @@
       <c r="A45" t="inlineStr">
         <is>
           <t>reliance
-1. 신뢰, 확신
-2. 만족, 희열
-3. 평판 좋은, 존경할 만한</t>
+1. 만족, 희열
+2. 신뢰, 확신
+3. 자신감 있는</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>1, 신뢰, 확신</t>
+          <t>2, 신뢰, 확신</t>
         </is>
       </c>
     </row>
@@ -1109,59 +1109,59 @@
       <c r="A46" t="inlineStr">
         <is>
           <t>conviction
+1. 신뢰, 확신
+2. 침입하다, 난입하다
+3. 계속하다</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>1, 신뢰, 확신</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>tranquility
 1. 고요, 평온
 2. 생기, 활기
-3. 신뢰, 확신</t>
-        </is>
-      </c>
-      <c r="B46" t="inlineStr">
-        <is>
-          <t>3, 신뢰, 확신</t>
-        </is>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" t="inlineStr">
-        <is>
-          <t>tranquility
+3. 배열하다, 일렬로 세우다</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>1, 고요, 평온</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>silence
+1. 침입하다, 난입하다
+2. 계속하다
+3. 고요, 평온</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>3, 고요, 평온</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>quiet
 1. 침입하다, 난입하다
 2. 고요, 평온
-3. 배열하다, 일렬로 세우다</t>
-        </is>
-      </c>
-      <c r="B47" t="inlineStr">
+3. 만족, 희열</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
         <is>
           <t>2, 고요, 평온</t>
-        </is>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" t="inlineStr">
-        <is>
-          <t>silence
-1. 고요, 평온
-2. 평판 좋은, 존경할 만한
-3. 나눠주다, 분배하다</t>
-        </is>
-      </c>
-      <c r="B48" t="inlineStr">
-        <is>
-          <t>1, 고요, 평온</t>
-        </is>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" t="inlineStr">
-        <is>
-          <t>quiet
-1. 침입하다, 난입하다
-2. 만족, 희열
-3. 고요, 평온</t>
-        </is>
-      </c>
-      <c r="B49" t="inlineStr">
-        <is>
-          <t>3, 고요, 평온</t>
         </is>
       </c>
     </row>
@@ -1169,14 +1169,14 @@
       <c r="A50" t="inlineStr">
         <is>
           <t>serenity
-1. 고요, 평온
-2. 신뢰, 확신
-3. 만족, 희열</t>
+1. 만족, 희열
+2. 고요, 평온
+3. 신뢰, 확신</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>1, 고요, 평온</t>
+          <t>2, 고요, 평온</t>
         </is>
       </c>
     </row>
@@ -1184,14 +1184,14 @@
       <c r="A51" t="inlineStr">
         <is>
           <t>composure
-1. 고요, 평온
-2. 평판 좋은, 존경할 만한
-3. 계속하다</t>
+1. 신뢰, 확신
+2. 자신감 있는
+3. 고요, 평온</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>1, 고요, 평온</t>
+          <t>3, 고요, 평온</t>
         </is>
       </c>
     </row>

--- a/학습자료/단답형/객관식_영어_유의어_Day02.xlsx
+++ b/학습자료/단답형/객관식_영어_유의어_Day02.xlsx
@@ -448,30 +448,30 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>reputable
-1. 평판 좋은, 존경할 만한
-2. 배열하다, 일렬로 세우다
-3. 침입하다, 난입하다</t>
+          <t>reputable*
+1. 자신감 있는
+2. 평판 좋은, 존경할 만한
+3. 배열하다, 일렬로 세우다</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>1, 평판 좋은, 존경할 만한</t>
+          <t>2, 평판 좋은, 존경할 만한</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>prestigious
+          <t>prestigious*
 1. 자신감 있는
-2. 만족, 희열
-3. 평판 좋은, 존경할 만한</t>
+2. 평판 좋은, 존경할 만한
+3. 만족, 희열</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>3, 평판 좋은, 존경할 만한</t>
+          <t>2, 평판 좋은, 존경할 만한</t>
         </is>
       </c>
     </row>
@@ -479,8 +479,8 @@
       <c r="A4" t="inlineStr">
         <is>
           <t>creditable
-1. 침입하다, 난입하다
-2. 생기, 활기
+1. 자신감 있는
+2. 고요, 평온
 3. 평판 좋은, 존경할 만한</t>
         </is>
       </c>
@@ -495,8 +495,8 @@
         <is>
           <t>respectable
 1. 평판 좋은, 존경할 만한
-2. 배열하다, 일렬로 세우다
-3. 침입하다, 난입하다</t>
+2. 나눠주다, 분배하다
+3. 자신감 있는</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -509,119 +509,119 @@
       <c r="A6" t="inlineStr">
         <is>
           <t>venerable
-1. 나눠주다, 분배하다
-2. 평판 좋은, 존경할 만한
-3. 고요, 평온</t>
+1. 고요, 평온
+2. 신뢰, 확신
+3. 평판 좋은, 존경할 만한</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2, 평판 좋은, 존경할 만한</t>
+          <t>3, 평판 좋은, 존경할 만한</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>confident
+          <t>confident*
+1. 신뢰, 확신
+2. 자신감 있는
+3. 계속하다</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2, 자신감 있는</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>assured
 1. 자신감 있는
+2. 나눠주다, 분배하다
+3. 만족, 희열</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>1, 자신감 있는</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>assertive
+1. 고요, 평온
+2. 배열하다, 일렬로 세우다
+3. 자신감 있는</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>3, 자신감 있는</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>sanguine
+1. 자신감 있는
+2. 생기, 활기
+3. 나눠주다, 분배하다</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>1, 자신감 있는</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>buoyant
+1. 자신감 있는
+2. 생기, 활기
+3. 신뢰, 확신</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>1, 자신감 있는</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>line up*
+1. 배열하다, 일렬로 세우다
+2. 고요, 평온
+3. 침입하다, 난입하다</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>1, 배열하다, 일렬로 세우다</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>arrange
+1. 배열하다, 일렬로 세우다
 2. 평판 좋은, 존경할 만한
 3. 생기, 활기</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>1, 자신감 있는</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>assured
-1. 만족, 희열
-2. 자신감 있는
-3. 침입하다, 난입하다</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>2, 자신감 있는</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>assertive
-1. 생기, 활기
-2. 신뢰, 확신
-3. 자신감 있는</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>3, 자신감 있는</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>sanguine
-1. 고요, 평온
-2. 신뢰, 확신
-3. 자신감 있는</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>3, 자신감 있는</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>buoyant
-1. 자신감 있는
-2. 침입하다, 난입하다
-3. 나눠주다, 분배하다</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>1, 자신감 있는</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>line up
-1. 계속하다
-2. 침입하다, 난입하다
-3. 배열하다, 일렬로 세우다</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>3, 배열하다, 일렬로 세우다</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>arrange
-1. 계속하다
-2. 배열하다, 일렬로 세우다
-3. 고요, 평온</t>
-        </is>
-      </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>2, 배열하다, 일렬로 세우다</t>
+          <t>1, 배열하다, 일렬로 세우다</t>
         </is>
       </c>
     </row>
@@ -629,14 +629,14 @@
       <c r="A14" t="inlineStr">
         <is>
           <t>array
-1. 배열하다, 일렬로 세우다
-2. 생기, 활기
-3. 신뢰, 확신</t>
+1. 만족, 희열
+2. 평판 좋은, 존경할 만한
+3. 배열하다, 일렬로 세우다</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>1, 배열하다, 일렬로 세우다</t>
+          <t>3, 배열하다, 일렬로 세우다</t>
         </is>
       </c>
     </row>
@@ -646,7 +646,7 @@
           <t>sequence
 1. 신뢰, 확신
 2. 배열하다, 일렬로 세우다
-3. 만족, 희열</t>
+3. 평판 좋은, 존경할 만한</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -659,419 +659,419 @@
       <c r="A16" t="inlineStr">
         <is>
           <t>align
+1. 배열하다, 일렬로 세우다
+2. 나눠주다, 분배하다
+3. 자신감 있는</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>1, 배열하다, 일렬로 세우다</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>give out*
+1. 나눠주다, 분배하다
+2. 생기, 활기
+3. 만족, 희열</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>1, 나눠주다, 분배하다</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>hand out
+1. 배열하다, 일렬로 세우다
+2. 계속하다
+3. 나눠주다, 분배하다</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>3, 나눠주다, 분배하다</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>give away
+1. 나눠주다, 분배하다
+2. 신뢰, 확신
+3. 평판 좋은, 존경할 만한</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>1, 나눠주다, 분배하다</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>deal out
+1. 나눠주다, 분배하다
+2. 생기, 활기
+3. 자신감 있는</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>1, 나눠주다, 분배하다</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>serve out
+1. 생기, 활기
+2. 배열하다, 일렬로 세우다
+3. 나눠주다, 분배하다</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>3, 나눠주다, 분배하다</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>carry on*
+1. 계속하다
+2. 평판 좋은, 존경할 만한
+3. 나눠주다, 분배하다</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>1, 계속하다</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>keep on
 1. 계속하다
 2. 신뢰, 확신
+3. 나눠주다, 분배하다</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>1, 계속하다</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>go on
+1. 만족, 희열
+2. 계속하다
+3. 생기, 활기</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>2, 계속하다</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>stick at
+1. 배열하다, 일렬로 세우다
+2. 계속하다
+3. 고요, 평온</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>2, 계속하다</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>continue
+1. 계속하다
+2. 평판 좋은, 존경할 만한
+3. 나눠주다, 분배하다</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>1, 계속하다</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>break out*
+1. 침입하다, 난입하다
+2. 평판 좋은, 존경할 만한
+3. 나눠주다, 분배하다</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>1, 침입하다, 난입하다</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>burst into
+1. 생기, 활기
+2. 나눠주다, 분배하다
+3. 침입하다, 난입하다</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>3, 침입하다, 난입하다</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>rush into
+1. 만족, 희열
+2. 침입하다, 난입하다
+3. 나눠주다, 분배하다</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>2, 침입하다, 난입하다</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>invade
+1. 나눠주다, 분배하다
+2. 계속하다
+3. 침입하다, 난입하다</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>3, 침입하다, 난입하다</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>trespass
+1. 침입하다, 난입하다
+2. 나눠주다, 분배하다
+3. 고요, 평온</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>1, 침입하다, 난입하다</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>gratification*
+1. 고요, 평온
+2. 만족, 희열
+3. 신뢰, 확신</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>2, 만족, 희열</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>satisfaction*
+1. 나눠주다, 분배하다
+2. 고요, 평온
+3. 만족, 희열</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>3, 만족, 희열</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>contentment
+1. 만족, 희열
+2. 생기, 활기
 3. 배열하다, 일렬로 세우다</t>
         </is>
       </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>3, 배열하다, 일렬로 세우다</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>give out
-1. 생기, 활기
-2. 신뢰, 확신
-3. 나눠주다, 분배하다</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>3, 나눠주다, 분배하다</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>hand out
-1. 나눠주다, 분배하다
-2. 신뢰, 확신
-3. 침입하다, 난입하다</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>1, 나눠주다, 분배하다</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>give away
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>1, 만족, 희열</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>euphoria
+1. 만족, 희열
+2. 침입하다, 난입하다
+3. 고요, 평온</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>1, 만족, 희열</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>delight
 1. 생기, 활기
 2. 자신감 있는
+3. 만족, 희열</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>3, 만족, 희열</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>liveliness*
+1. 생기, 활기
+2. 자신감 있는
+3. 만족, 희열</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>1, 생기, 활기</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>spring
+1. 평판 좋은, 존경할 만한
+2. 만족, 희열
+3. 생기, 활기</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>3, 생기, 활기</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>sparkle
+1. 만족, 희열
+2. 생기, 활기
 3. 나눠주다, 분배하다</t>
         </is>
       </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>3, 나눠주다, 분배하다</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>deal out
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>2, 생기, 활기</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>vivacity
+1. 침입하다, 난입하다
+2. 신뢰, 확신
+3. 생기, 활기</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>3, 생기, 활기</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>vigor
+1. 신뢰, 확신
+2. 고요, 평온
+3. 생기, 활기</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>3, 생기, 활기</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>confidence*
+1. 신뢰, 확신
+2. 만족, 희열
+3. 고요, 평온</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>1, 신뢰, 확신</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>faith
 1. 나눠주다, 분배하다
 2. 고요, 평온
-3. 계속하다</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>1, 나눠주다, 분배하다</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>serve out
-1. 나눠주다, 분배하다
-2. 계속하다
-3. 고요, 평온</t>
-        </is>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>1, 나눠주다, 분배하다</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>carry on
-1. 나눠주다, 분배하다
-2. 계속하다
-3. 자신감 있는</t>
-        </is>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>2, 계속하다</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>keep on
-1. 계속하다
-2. 고요, 평온
-3. 배열하다, 일렬로 세우다</t>
-        </is>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>1, 계속하다</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>go on
-1. 자신감 있는
-2. 고요, 평온
-3. 계속하다</t>
-        </is>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>3, 계속하다</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>stick at
-1. 평판 좋은, 존경할 만한
-2. 계속하다
-3. 만족, 희열</t>
-        </is>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>2, 계속하다</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>continue
-1. 평판 좋은, 존경할 만한
-2. 계속하다
-3. 자신감 있는</t>
-        </is>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>2, 계속하다</t>
-        </is>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>break out
-1. 신뢰, 확신
-2. 침입하다, 난입하다
-3. 만족, 희열</t>
-        </is>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>2, 침입하다, 난입하다</t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>burst into
-1. 배열하다, 일렬로 세우다
-2. 침입하다, 난입하다
 3. 신뢰, 확신</t>
         </is>
       </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>2, 침입하다, 난입하다</t>
-        </is>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>rush into
-1. 나눠주다, 분배하다
-2. 침입하다, 난입하다
-3. 자신감 있는</t>
-        </is>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>2, 침입하다, 난입하다</t>
-        </is>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="inlineStr">
-        <is>
-          <t>invade
-1. 자신감 있는
-2. 침입하다, 난입하다
-3. 평판 좋은, 존경할 만한</t>
-        </is>
-      </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>2, 침입하다, 난입하다</t>
-        </is>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="inlineStr">
-        <is>
-          <t>trespass
-1. 침입하다, 난입하다
-2. 평판 좋은, 존경할 만한
-3. 만족, 희열</t>
-        </is>
-      </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>1, 침입하다, 난입하다</t>
-        </is>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
-        <is>
-          <t>gratification
-1. 계속하다
-2. 만족, 희열
-3. 나눠주다, 분배하다</t>
-        </is>
-      </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>2, 만족, 희열</t>
-        </is>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="inlineStr">
-        <is>
-          <t>satisfaction
-1. 침입하다, 난입하다
-2. 만족, 희열
-3. 자신감 있는</t>
-        </is>
-      </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>2, 만족, 희열</t>
-        </is>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="inlineStr">
-        <is>
-          <t>contentment
-1. 침입하다, 난입하다
-2. 나눠주다, 분배하다
-3. 만족, 희열</t>
-        </is>
-      </c>
-      <c r="B34" t="inlineStr">
-        <is>
-          <t>3, 만족, 희열</t>
-        </is>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="inlineStr">
-        <is>
-          <t>euphoria
-1. 만족, 희열
-2. 나눠주다, 분배하다
-3. 생기, 활기</t>
-        </is>
-      </c>
-      <c r="B35" t="inlineStr">
-        <is>
-          <t>1, 만족, 희열</t>
-        </is>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="inlineStr">
-        <is>
-          <t>delight
-1. 평판 좋은, 존경할 만한
-2. 만족, 희열
-3. 침입하다, 난입하다</t>
-        </is>
-      </c>
-      <c r="B36" t="inlineStr">
-        <is>
-          <t>2, 만족, 희열</t>
-        </is>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="inlineStr">
-        <is>
-          <t>liveliness
-1. 평판 좋은, 존경할 만한
-2. 침입하다, 난입하다
-3. 생기, 활기</t>
-        </is>
-      </c>
-      <c r="B37" t="inlineStr">
-        <is>
-          <t>3, 생기, 활기</t>
-        </is>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="inlineStr">
-        <is>
-          <t>spring
-1. 생기, 활기
-2. 배열하다, 일렬로 세우다
-3. 만족, 희열</t>
-        </is>
-      </c>
-      <c r="B38" t="inlineStr">
-        <is>
-          <t>1, 생기, 활기</t>
-        </is>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="inlineStr">
-        <is>
-          <t>sparkle
-1. 생기, 활기
-2. 평판 좋은, 존경할 만한
-3. 계속하다</t>
-        </is>
-      </c>
-      <c r="B39" t="inlineStr">
-        <is>
-          <t>1, 생기, 활기</t>
-        </is>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="inlineStr">
-        <is>
-          <t>vivacity
-1. 생기, 활기
-2. 신뢰, 확신
-3. 평판 좋은, 존경할 만한</t>
-        </is>
-      </c>
-      <c r="B40" t="inlineStr">
-        <is>
-          <t>1, 생기, 활기</t>
-        </is>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="inlineStr">
-        <is>
-          <t>vigor
-1. 계속하다
-2. 평판 좋은, 존경할 만한
-3. 생기, 활기</t>
-        </is>
-      </c>
-      <c r="B41" t="inlineStr">
-        <is>
-          <t>3, 생기, 활기</t>
-        </is>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" t="inlineStr">
-        <is>
-          <t>confidence
-1. 평판 좋은, 존경할 만한
-2. 신뢰, 확신
-3. 나눠주다, 분배하다</t>
-        </is>
-      </c>
-      <c r="B42" t="inlineStr">
-        <is>
-          <t>2, 신뢰, 확신</t>
-        </is>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="inlineStr">
-        <is>
-          <t>faith
-1. 배열하다, 일렬로 세우다
-2. 신뢰, 확신
-3. 생기, 활기</t>
-        </is>
-      </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>2, 신뢰, 확신</t>
+          <t>3, 신뢰, 확신</t>
         </is>
       </c>
     </row>
@@ -1094,44 +1094,44 @@
       <c r="A45" t="inlineStr">
         <is>
           <t>reliance
+1. 신뢰, 확신
+2. 고요, 평온
+3. 자신감 있는</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>1, 신뢰, 확신</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>conviction
 1. 만족, 희열
 2. 신뢰, 확신
 3. 자신감 있는</t>
         </is>
       </c>
-      <c r="B45" t="inlineStr">
+      <c r="B46" t="inlineStr">
         <is>
           <t>2, 신뢰, 확신</t>
-        </is>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" t="inlineStr">
-        <is>
-          <t>conviction
-1. 신뢰, 확신
-2. 침입하다, 난입하다
-3. 계속하다</t>
-        </is>
-      </c>
-      <c r="B46" t="inlineStr">
-        <is>
-          <t>1, 신뢰, 확신</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>tranquility
-1. 고요, 평온
-2. 생기, 활기
-3. 배열하다, 일렬로 세우다</t>
+          <t>tranquility*
+1. 침입하다, 난입하다
+2. 평판 좋은, 존경할 만한
+3. 고요, 평온</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>1, 고요, 평온</t>
+          <t>3, 고요, 평온</t>
         </is>
       </c>
     </row>
@@ -1139,14 +1139,14 @@
       <c r="A48" t="inlineStr">
         <is>
           <t>silence
-1. 침입하다, 난입하다
-2. 계속하다
-3. 고요, 평온</t>
+1. 생기, 활기
+2. 고요, 평온
+3. 계속하다</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>3, 고요, 평온</t>
+          <t>2, 고요, 평온</t>
         </is>
       </c>
     </row>
@@ -1154,14 +1154,14 @@
       <c r="A49" t="inlineStr">
         <is>
           <t>quiet
-1. 침입하다, 난입하다
-2. 고요, 평온
-3. 만족, 희열</t>
+1. 배열하다, 일렬로 세우다
+2. 평판 좋은, 존경할 만한
+3. 고요, 평온</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>2, 고요, 평온</t>
+          <t>3, 고요, 평온</t>
         </is>
       </c>
     </row>
@@ -1169,29 +1169,29 @@
       <c r="A50" t="inlineStr">
         <is>
           <t>serenity
+1. 고요, 평온
+2. 침입하다, 난입하다
+3. 신뢰, 확신</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>1, 고요, 평온</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>composure
 1. 만족, 희열
 2. 고요, 평온
-3. 신뢰, 확신</t>
-        </is>
-      </c>
-      <c r="B50" t="inlineStr">
+3. 생기, 활기</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
         <is>
           <t>2, 고요, 평온</t>
-        </is>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" t="inlineStr">
-        <is>
-          <t>composure
-1. 신뢰, 확신
-2. 자신감 있는
-3. 고요, 평온</t>
-        </is>
-      </c>
-      <c r="B51" t="inlineStr">
-        <is>
-          <t>3, 고요, 평온</t>
         </is>
       </c>
     </row>

--- a/학습자료/단답형/객관식_영어_유의어_Day02.xlsx
+++ b/학습자료/단답형/객관식_영어_유의어_Day02.xlsx
@@ -448,60 +448,60 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>reputable*
-1. 자신감 있는
+          <t>reputable
+1. 신뢰, 확신
+2. 배열하다, 일렬로 세우다
+3. 평판 좋은, 존경할 만한</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>3, 평판 좋은, 존경할 만한</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>prestigious
+1. 평판 좋은, 존경할 만한
+2. 고요, 평온
+3. 자신감 있는</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>1, 평판 좋은, 존경할 만한</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>creditable
+1. 고요, 평온
+2. 자신감 있는
+3. 평판 좋은, 존경할 만한</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>3, 평판 좋은, 존경할 만한</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>respectable
+1. 만족, 희열
 2. 평판 좋은, 존경할 만한
 3. 배열하다, 일렬로 세우다</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="B5" t="inlineStr">
         <is>
           <t>2, 평판 좋은, 존경할 만한</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>prestigious*
-1. 자신감 있는
-2. 평판 좋은, 존경할 만한
-3. 만족, 희열</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>2, 평판 좋은, 존경할 만한</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>creditable
-1. 자신감 있는
-2. 고요, 평온
-3. 평판 좋은, 존경할 만한</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>3, 평판 좋은, 존경할 만한</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>respectable
-1. 평판 좋은, 존경할 만한
-2. 나눠주다, 분배하다
-3. 자신감 있는</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>1, 평판 좋은, 존경할 만한</t>
         </is>
       </c>
     </row>
@@ -509,8 +509,8 @@
       <c r="A6" t="inlineStr">
         <is>
           <t>venerable
-1. 고요, 평온
-2. 신뢰, 확신
+1. 생기, 활기
+2. 나눠주다, 분배하다
 3. 평판 좋은, 존경할 만한</t>
         </is>
       </c>
@@ -523,15 +523,15 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>confident*
-1. 신뢰, 확신
-2. 자신감 있는
-3. 계속하다</t>
+          <t>confident
+1. 배열하다, 일렬로 세우다
+2. 계속하다
+3. 자신감 있는</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2, 자신감 있는</t>
+          <t>3, 자신감 있는</t>
         </is>
       </c>
     </row>
@@ -539,14 +539,14 @@
       <c r="A8" t="inlineStr">
         <is>
           <t>assured
-1. 자신감 있는
-2. 나눠주다, 분배하다
-3. 만족, 희열</t>
+1. 만족, 희열
+2. 계속하다
+3. 자신감 있는</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>1, 자신감 있는</t>
+          <t>3, 자신감 있는</t>
         </is>
       </c>
     </row>
@@ -554,14 +554,14 @@
       <c r="A9" t="inlineStr">
         <is>
           <t>assertive
-1. 고요, 평온
-2. 배열하다, 일렬로 세우다
-3. 자신감 있는</t>
+1. 자신감 있는
+2. 계속하다
+3. 만족, 희열</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>3, 자신감 있는</t>
+          <t>1, 자신감 있는</t>
         </is>
       </c>
     </row>
@@ -571,7 +571,7 @@
           <t>sanguine
 1. 자신감 있는
 2. 생기, 활기
-3. 나눠주다, 분배하다</t>
+3. 신뢰, 확신</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -585,8 +585,8 @@
         <is>
           <t>buoyant
 1. 자신감 있는
-2. 생기, 활기
-3. 신뢰, 확신</t>
+2. 신뢰, 확신
+3. 나눠주다, 분배하다</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -598,10 +598,10 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>line up*
+          <t>line up
 1. 배열하다, 일렬로 세우다
 2. 고요, 평온
-3. 침입하다, 난입하다</t>
+3. 만족, 희열</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -614,14 +614,14 @@
       <c r="A13" t="inlineStr">
         <is>
           <t>arrange
-1. 배열하다, 일렬로 세우다
-2. 평판 좋은, 존경할 만한
-3. 생기, 활기</t>
+1. 신뢰, 확신
+2. 배열하다, 일렬로 세우다
+3. 고요, 평온</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>1, 배열하다, 일렬로 세우다</t>
+          <t>2, 배열하다, 일렬로 세우다</t>
         </is>
       </c>
     </row>
@@ -629,8 +629,8 @@
       <c r="A14" t="inlineStr">
         <is>
           <t>array
-1. 만족, 희열
-2. 평판 좋은, 존경할 만한
+1. 자신감 있는
+2. 계속하다
 3. 배열하다, 일렬로 세우다</t>
         </is>
       </c>
@@ -644,14 +644,14 @@
       <c r="A15" t="inlineStr">
         <is>
           <t>sequence
-1. 신뢰, 확신
-2. 배열하다, 일렬로 세우다
-3. 평판 좋은, 존경할 만한</t>
+1. 고요, 평온
+2. 자신감 있는
+3. 배열하다, 일렬로 세우다</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>2, 배열하다, 일렬로 세우다</t>
+          <t>3, 배열하다, 일렬로 세우다</t>
         </is>
       </c>
     </row>
@@ -661,7 +661,7 @@
           <t>align
 1. 배열하다, 일렬로 세우다
 2. 나눠주다, 분배하다
-3. 자신감 있는</t>
+3. 만족, 희열</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -673,459 +673,459 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>give out*
-1. 나눠주다, 분배하다
-2. 생기, 활기
-3. 만족, 희열</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>1, 나눠주다, 분배하다</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>hand out
-1. 배열하다, 일렬로 세우다
-2. 계속하다
-3. 나눠주다, 분배하다</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>3, 나눠주다, 분배하다</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>give away
-1. 나눠주다, 분배하다
-2. 신뢰, 확신
-3. 평판 좋은, 존경할 만한</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>1, 나눠주다, 분배하다</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>deal out
-1. 나눠주다, 분배하다
-2. 생기, 활기
-3. 자신감 있는</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>1, 나눠주다, 분배하다</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>serve out
+          <t>give out
 1. 생기, 활기
 2. 배열하다, 일렬로 세우다
 3. 나눠주다, 분배하다</t>
         </is>
       </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>3, 나눠주다, 분배하다</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>hand out
+1. 나눠주다, 분배하다
+2. 계속하다
+3. 배열하다, 일렬로 세우다</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>1, 나눠주다, 분배하다</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>give away
+1. 배열하다, 일렬로 세우다
+2. 나눠주다, 분배하다
+3. 생기, 활기</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>2, 나눠주다, 분배하다</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>deal out
+1. 생기, 활기
+2. 만족, 희열
+3. 나눠주다, 분배하다</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>3, 나눠주다, 분배하다</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>serve out
+1. 침입하다, 난입하다
+2. 나눠주다, 분배하다
+3. 신뢰, 확신</t>
+        </is>
+      </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>3, 나눠주다, 분배하다</t>
+          <t>2, 나눠주다, 분배하다</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>carry on*
+          <t>carry on
+1. 계속하다
+2. 배열하다, 일렬로 세우다
+3. 생기, 활기</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>1, 계속하다</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>keep on
+1. 고요, 평온
+2. 침입하다, 난입하다
+3. 계속하다</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>3, 계속하다</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>go on
+1. 배열하다, 일렬로 세우다
+2. 평판 좋은, 존경할 만한
+3. 계속하다</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>3, 계속하다</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>stick at
+1. 생기, 활기
+2. 평판 좋은, 존경할 만한
+3. 계속하다</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>3, 계속하다</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>continue
+1. 침입하다, 난입하다
+2. 자신감 있는
+3. 계속하다</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>3, 계속하다</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>break out
+1. 나눠주다, 분배하다
+2. 침입하다, 난입하다
+3. 생기, 활기</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>2, 침입하다, 난입하다</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>burst into
+1. 신뢰, 확신
+2. 침입하다, 난입하다
+3. 고요, 평온</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>2, 침입하다, 난입하다</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>rush into
+1. 신뢰, 확신
+2. 침입하다, 난입하다
+3. 만족, 희열</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>2, 침입하다, 난입하다</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>invade
+1. 침입하다, 난입하다
+2. 나눠주다, 분배하다
+3. 계속하다</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>1, 침입하다, 난입하다</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>trespass
+1. 자신감 있는
+2. 배열하다, 일렬로 세우다
+3. 침입하다, 난입하다</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>3, 침입하다, 난입하다</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>gratification
+1. 생기, 활기
+2. 만족, 희열
+3. 계속하다</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>2, 만족, 희열</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>satisfaction
+1. 생기, 활기
+2. 만족, 희열
+3. 평판 좋은, 존경할 만한</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>2, 만족, 희열</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>contentment
+1. 신뢰, 확신
+2. 평판 좋은, 존경할 만한
+3. 만족, 희열</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>3, 만족, 희열</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>euphoria
+1. 계속하다
+2. 만족, 희열
+3. 고요, 평온</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>2, 만족, 희열</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>delight
+1. 배열하다, 일렬로 세우다
+2. 자신감 있는
+3. 만족, 희열</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>3, 만족, 희열</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>liveliness
+1. 생기, 활기
+2. 침입하다, 난입하다
+3. 계속하다</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>1, 생기, 활기</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>spring
+1. 생기, 활기
+2. 침입하다, 난입하다
+3. 평판 좋은, 존경할 만한</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>1, 생기, 활기</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>sparkle
+1. 자신감 있는
+2. 생기, 활기
+3. 고요, 평온</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>2, 생기, 활기</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>vivacity
+1. 생기, 활기
+2. 고요, 평온
+3. 평판 좋은, 존경할 만한</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>1, 생기, 활기</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>vigor
+1. 생기, 활기
+2. 침입하다, 난입하다
+3. 배열하다, 일렬로 세우다</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>1, 생기, 활기</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>confidence
+1. 침입하다, 난입하다
+2. 나눠주다, 분배하다
+3. 신뢰, 확신</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>3, 신뢰, 확신</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>faith
 1. 계속하다
 2. 평판 좋은, 존경할 만한
-3. 나눠주다, 분배하다</t>
-        </is>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>1, 계속하다</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>keep on
-1. 계속하다
-2. 신뢰, 확신
-3. 나눠주다, 분배하다</t>
-        </is>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>1, 계속하다</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>go on
-1. 만족, 희열
-2. 계속하다
-3. 생기, 활기</t>
-        </is>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>2, 계속하다</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>stick at
-1. 배열하다, 일렬로 세우다
-2. 계속하다
-3. 고요, 평온</t>
-        </is>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>2, 계속하다</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>continue
-1. 계속하다
-2. 평판 좋은, 존경할 만한
-3. 나눠주다, 분배하다</t>
-        </is>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>1, 계속하다</t>
-        </is>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>break out*
-1. 침입하다, 난입하다
-2. 평판 좋은, 존경할 만한
-3. 나눠주다, 분배하다</t>
-        </is>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>1, 침입하다, 난입하다</t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>burst into
-1. 생기, 활기
+3. 신뢰, 확신</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>3, 신뢰, 확신</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>credence
+1. 신뢰, 확신
+2. 나눠주다, 분배하다
+3. 평판 좋은, 존경할 만한</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>1, 신뢰, 확신</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>reliance
+1. 평판 좋은, 존경할 만한
+2. 고요, 평온
+3. 신뢰, 확신</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>3, 신뢰, 확신</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>conviction
+1. 신뢰, 확신
 2. 나눠주다, 분배하다
 3. 침입하다, 난입하다</t>
         </is>
       </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>3, 침입하다, 난입하다</t>
-        </is>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>rush into
-1. 만족, 희열
-2. 침입하다, 난입하다
-3. 나눠주다, 분배하다</t>
-        </is>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>2, 침입하다, 난입하다</t>
-        </is>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="inlineStr">
-        <is>
-          <t>invade
-1. 나눠주다, 분배하다
-2. 계속하다
-3. 침입하다, 난입하다</t>
-        </is>
-      </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>3, 침입하다, 난입하다</t>
-        </is>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="inlineStr">
-        <is>
-          <t>trespass
-1. 침입하다, 난입하다
-2. 나눠주다, 분배하다
-3. 고요, 평온</t>
-        </is>
-      </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>1, 침입하다, 난입하다</t>
-        </is>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
-        <is>
-          <t>gratification*
-1. 고요, 평온
-2. 만족, 희열
-3. 신뢰, 확신</t>
-        </is>
-      </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>2, 만족, 희열</t>
-        </is>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="inlineStr">
-        <is>
-          <t>satisfaction*
-1. 나눠주다, 분배하다
-2. 고요, 평온
-3. 만족, 희열</t>
-        </is>
-      </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>3, 만족, 희열</t>
-        </is>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="inlineStr">
-        <is>
-          <t>contentment
-1. 만족, 희열
-2. 생기, 활기
-3. 배열하다, 일렬로 세우다</t>
-        </is>
-      </c>
-      <c r="B34" t="inlineStr">
-        <is>
-          <t>1, 만족, 희열</t>
-        </is>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="inlineStr">
-        <is>
-          <t>euphoria
-1. 만족, 희열
-2. 침입하다, 난입하다
-3. 고요, 평온</t>
-        </is>
-      </c>
-      <c r="B35" t="inlineStr">
-        <is>
-          <t>1, 만족, 희열</t>
-        </is>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="inlineStr">
-        <is>
-          <t>delight
-1. 생기, 활기
-2. 자신감 있는
-3. 만족, 희열</t>
-        </is>
-      </c>
-      <c r="B36" t="inlineStr">
-        <is>
-          <t>3, 만족, 희열</t>
-        </is>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="inlineStr">
-        <is>
-          <t>liveliness*
-1. 생기, 활기
-2. 자신감 있는
-3. 만족, 희열</t>
-        </is>
-      </c>
-      <c r="B37" t="inlineStr">
-        <is>
-          <t>1, 생기, 활기</t>
-        </is>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="inlineStr">
-        <is>
-          <t>spring
-1. 평판 좋은, 존경할 만한
-2. 만족, 희열
-3. 생기, 활기</t>
-        </is>
-      </c>
-      <c r="B38" t="inlineStr">
-        <is>
-          <t>3, 생기, 활기</t>
-        </is>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="inlineStr">
-        <is>
-          <t>sparkle
-1. 만족, 희열
-2. 생기, 활기
-3. 나눠주다, 분배하다</t>
-        </is>
-      </c>
-      <c r="B39" t="inlineStr">
-        <is>
-          <t>2, 생기, 활기</t>
-        </is>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="inlineStr">
-        <is>
-          <t>vivacity
-1. 침입하다, 난입하다
-2. 신뢰, 확신
-3. 생기, 활기</t>
-        </is>
-      </c>
-      <c r="B40" t="inlineStr">
-        <is>
-          <t>3, 생기, 활기</t>
-        </is>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="inlineStr">
-        <is>
-          <t>vigor
-1. 신뢰, 확신
-2. 고요, 평온
-3. 생기, 활기</t>
-        </is>
-      </c>
-      <c r="B41" t="inlineStr">
-        <is>
-          <t>3, 생기, 활기</t>
-        </is>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" t="inlineStr">
-        <is>
-          <t>confidence*
-1. 신뢰, 확신
-2. 만족, 희열
-3. 고요, 평온</t>
-        </is>
-      </c>
-      <c r="B42" t="inlineStr">
+      <c r="B46" t="inlineStr">
         <is>
           <t>1, 신뢰, 확신</t>
-        </is>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="inlineStr">
-        <is>
-          <t>faith
-1. 나눠주다, 분배하다
-2. 고요, 평온
-3. 신뢰, 확신</t>
-        </is>
-      </c>
-      <c r="B43" t="inlineStr">
-        <is>
-          <t>3, 신뢰, 확신</t>
-        </is>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="inlineStr">
-        <is>
-          <t>credence
-1. 신뢰, 확신
-2. 생기, 활기
-3. 만족, 희열</t>
-        </is>
-      </c>
-      <c r="B44" t="inlineStr">
-        <is>
-          <t>1, 신뢰, 확신</t>
-        </is>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" t="inlineStr">
-        <is>
-          <t>reliance
-1. 신뢰, 확신
-2. 고요, 평온
-3. 자신감 있는</t>
-        </is>
-      </c>
-      <c r="B45" t="inlineStr">
-        <is>
-          <t>1, 신뢰, 확신</t>
-        </is>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" t="inlineStr">
-        <is>
-          <t>conviction
-1. 만족, 희열
-2. 신뢰, 확신
-3. 자신감 있는</t>
-        </is>
-      </c>
-      <c r="B46" t="inlineStr">
-        <is>
-          <t>2, 신뢰, 확신</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>tranquility*
-1. 침입하다, 난입하다
-2. 평판 좋은, 존경할 만한
+          <t>tranquility
+1. 자신감 있는
+2. 침입하다, 난입하다
 3. 고요, 평온</t>
         </is>
       </c>
@@ -1141,7 +1141,7 @@
           <t>silence
 1. 생기, 활기
 2. 고요, 평온
-3. 계속하다</t>
+3. 배열하다, 일렬로 세우다</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -1154,8 +1154,8 @@
       <c r="A49" t="inlineStr">
         <is>
           <t>quiet
-1. 배열하다, 일렬로 세우다
-2. 평판 좋은, 존경할 만한
+1. 자신감 있는
+2. 생기, 활기
 3. 고요, 평온</t>
         </is>
       </c>
@@ -1169,14 +1169,14 @@
       <c r="A50" t="inlineStr">
         <is>
           <t>serenity
-1. 고요, 평온
-2. 침입하다, 난입하다
-3. 신뢰, 확신</t>
+1. 평판 좋은, 존경할 만한
+2. 고요, 평온
+3. 나눠주다, 분배하다</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>1, 고요, 평온</t>
+          <t>2, 고요, 평온</t>
         </is>
       </c>
     </row>
@@ -1184,14 +1184,14 @@
       <c r="A51" t="inlineStr">
         <is>
           <t>composure
-1. 만족, 희열
-2. 고요, 평온
-3. 생기, 활기</t>
+1. 신뢰, 확신
+2. 자신감 있는
+3. 고요, 평온</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>2, 고요, 평온</t>
+          <t>3, 고요, 평온</t>
         </is>
       </c>
     </row>

--- a/학습자료/단답형/객관식_영어_유의어_Day02.xlsx
+++ b/학습자료/단답형/객관식_영어_유의어_Day02.xlsx
@@ -449,14 +449,14 @@
       <c r="A2" t="inlineStr">
         <is>
           <t>reputable
-1. 신뢰, 확신
-2. 배열하다, 일렬로 세우다
-3. 평판 좋은, 존경할 만한</t>
+1. 평판 좋은, 존경할 만한
+2. 신뢰, 확신
+3. 계속하다</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>3, 평판 좋은, 존경할 만한</t>
+          <t>1, 평판 좋은, 존경할 만한</t>
         </is>
       </c>
     </row>
@@ -465,8 +465,8 @@
         <is>
           <t>prestigious
 1. 평판 좋은, 존경할 만한
-2. 고요, 평온
-3. 자신감 있는</t>
+2. 배열하다, 일렬로 세우다
+3. 생기, 활기</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -479,189 +479,189 @@
       <c r="A4" t="inlineStr">
         <is>
           <t>creditable
+1. 평판 좋은, 존경할 만한
+2. 생기, 활기
+3. 나눠주다, 분배하다</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>1, 평판 좋은, 존경할 만한</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>respectable
+1. 배열하다, 일렬로 세우다
+2. 평판 좋은, 존경할 만한
+3. 계속하다</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2, 평판 좋은, 존경할 만한</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>venerable
+1. 침입하다, 난입하다
+2. 나눠주다, 분배하다
+3. 평판 좋은, 존경할 만한</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>3, 평판 좋은, 존경할 만한</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>confident
+1. 나눠주다, 분배하다
+2. 배열하다, 일렬로 세우다
+3. 자신감 있는</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>3, 자신감 있는</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>assured
+1. 평판 좋은, 존경할 만한
+2. 자신감 있는
+3. 고요, 평온</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>2, 자신감 있는</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>assertive
 1. 고요, 평온
 2. 자신감 있는
 3. 평판 좋은, 존경할 만한</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>3, 평판 좋은, 존경할 만한</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>respectable
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>2, 자신감 있는</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>sanguine
 1. 만족, 희열
-2. 평판 좋은, 존경할 만한
+2. 자신감 있는
 3. 배열하다, 일렬로 세우다</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>2, 평판 좋은, 존경할 만한</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>venerable
-1. 생기, 활기
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>2, 자신감 있는</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>buoyant
+1. 자신감 있는
+2. 만족, 희열
+3. 평판 좋은, 존경할 만한</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>1, 자신감 있는</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>line up
+1. 만족, 희열
+2. 고요, 평온
+3. 배열하다, 일렬로 세우다</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>3, 배열하다, 일렬로 세우다</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>arrange
+1. 침입하다, 난입하다
+2. 배열하다, 일렬로 세우다
+3. 나눠주다, 분배하다</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>2, 배열하다, 일렬로 세우다</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>array
+1. 침입하다, 난입하다
+2. 자신감 있는
+3. 배열하다, 일렬로 세우다</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>3, 배열하다, 일렬로 세우다</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>sequence
+1. 고요, 평온
 2. 나눠주다, 분배하다
-3. 평판 좋은, 존경할 만한</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>3, 평판 좋은, 존경할 만한</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>confident
+3. 배열하다, 일렬로 세우다</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>3, 배열하다, 일렬로 세우다</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>align
 1. 배열하다, 일렬로 세우다
 2. 계속하다
-3. 자신감 있는</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>3, 자신감 있는</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>assured
-1. 만족, 희열
-2. 계속하다
-3. 자신감 있는</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>3, 자신감 있는</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>assertive
-1. 자신감 있는
-2. 계속하다
-3. 만족, 희열</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>1, 자신감 있는</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>sanguine
-1. 자신감 있는
-2. 생기, 활기
-3. 신뢰, 확신</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>1, 자신감 있는</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>buoyant
-1. 자신감 있는
-2. 신뢰, 확신
 3. 나눠주다, 분배하다</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>1, 자신감 있는</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>line up
-1. 배열하다, 일렬로 세우다
-2. 고요, 평온
-3. 만족, 희열</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>1, 배열하다, 일렬로 세우다</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>arrange
-1. 신뢰, 확신
-2. 배열하다, 일렬로 세우다
-3. 고요, 평온</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>2, 배열하다, 일렬로 세우다</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>array
-1. 자신감 있는
-2. 계속하다
-3. 배열하다, 일렬로 세우다</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>3, 배열하다, 일렬로 세우다</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>sequence
-1. 고요, 평온
-2. 자신감 있는
-3. 배열하다, 일렬로 세우다</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>3, 배열하다, 일렬로 세우다</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>align
-1. 배열하다, 일렬로 세우다
-2. 나눠주다, 분배하다
-3. 만족, 희열</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -674,14 +674,14 @@
       <c r="A17" t="inlineStr">
         <is>
           <t>give out
-1. 생기, 활기
-2. 배열하다, 일렬로 세우다
-3. 나눠주다, 분배하다</t>
+1. 나눠주다, 분배하다
+2. 생기, 활기
+3. 배열하다, 일렬로 세우다</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>3, 나눠주다, 분배하다</t>
+          <t>1, 나눠주다, 분배하다</t>
         </is>
       </c>
     </row>
@@ -690,8 +690,8 @@
         <is>
           <t>hand out
 1. 나눠주다, 분배하다
-2. 계속하다
-3. 배열하다, 일렬로 세우다</t>
+2. 생기, 활기
+3. 평판 좋은, 존경할 만한</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -704,14 +704,14 @@
       <c r="A19" t="inlineStr">
         <is>
           <t>give away
-1. 배열하다, 일렬로 세우다
-2. 나눠주다, 분배하다
-3. 생기, 활기</t>
+1. 나눠주다, 분배하다
+2. 신뢰, 확신
+3. 계속하다</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>2, 나눠주다, 분배하다</t>
+          <t>1, 나눠주다, 분배하다</t>
         </is>
       </c>
     </row>
@@ -719,14 +719,14 @@
       <c r="A20" t="inlineStr">
         <is>
           <t>deal out
-1. 생기, 활기
-2. 만족, 희열
-3. 나눠주다, 분배하다</t>
+1. 고요, 평온
+2. 나눠주다, 분배하다
+3. 신뢰, 확신</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>3, 나눠주다, 분배하다</t>
+          <t>2, 나눠주다, 분배하다</t>
         </is>
       </c>
     </row>
@@ -734,14 +734,14 @@
       <c r="A21" t="inlineStr">
         <is>
           <t>serve out
-1. 침입하다, 난입하다
-2. 나눠주다, 분배하다
-3. 신뢰, 확신</t>
+1. 나눠주다, 분배하다
+2. 신뢰, 확신
+3. 평판 좋은, 존경할 만한</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>2, 나눠주다, 분배하다</t>
+          <t>1, 나눠주다, 분배하다</t>
         </is>
       </c>
     </row>
@@ -749,14 +749,14 @@
       <c r="A22" t="inlineStr">
         <is>
           <t>carry on
-1. 계속하다
-2. 배열하다, 일렬로 세우다
-3. 생기, 활기</t>
+1. 침입하다, 난입하다
+2. 고요, 평온
+3. 계속하다</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>1, 계속하다</t>
+          <t>3, 계속하다</t>
         </is>
       </c>
     </row>
@@ -764,14 +764,14 @@
       <c r="A23" t="inlineStr">
         <is>
           <t>keep on
-1. 고요, 평온
-2. 침입하다, 난입하다
-3. 계속하다</t>
+1. 계속하다
+2. 생기, 활기
+3. 평판 좋은, 존경할 만한</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>3, 계속하다</t>
+          <t>1, 계속하다</t>
         </is>
       </c>
     </row>
@@ -779,14 +779,14 @@
       <c r="A24" t="inlineStr">
         <is>
           <t>go on
-1. 배열하다, 일렬로 세우다
-2. 평판 좋은, 존경할 만한
-3. 계속하다</t>
+1. 신뢰, 확신
+2. 계속하다
+3. 생기, 활기</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>3, 계속하다</t>
+          <t>2, 계속하다</t>
         </is>
       </c>
     </row>
@@ -794,26 +794,26 @@
       <c r="A25" t="inlineStr">
         <is>
           <t>stick at
+1. 신뢰, 확신
+2. 고요, 평온
+3. 계속하다</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>3, 계속하다</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>continue
 1. 생기, 활기
 2. 평판 좋은, 존경할 만한
 3. 계속하다</t>
         </is>
       </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>3, 계속하다</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>continue
-1. 침입하다, 난입하다
-2. 자신감 있는
-3. 계속하다</t>
-        </is>
-      </c>
       <c r="B26" t="inlineStr">
         <is>
           <t>3, 계속하다</t>
@@ -824,9 +824,9 @@
       <c r="A27" t="inlineStr">
         <is>
           <t>break out
-1. 나눠주다, 분배하다
+1. 배열하다, 일렬로 세우다
 2. 침입하다, 난입하다
-3. 생기, 활기</t>
+3. 만족, 희열</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -839,14 +839,14 @@
       <c r="A28" t="inlineStr">
         <is>
           <t>burst into
-1. 신뢰, 확신
-2. 침입하다, 난입하다
+1. 침입하다, 난입하다
+2. 생기, 활기
 3. 고요, 평온</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>2, 침입하다, 난입하다</t>
+          <t>1, 침입하다, 난입하다</t>
         </is>
       </c>
     </row>
@@ -854,14 +854,14 @@
       <c r="A29" t="inlineStr">
         <is>
           <t>rush into
-1. 신뢰, 확신
-2. 침입하다, 난입하다
-3. 만족, 희열</t>
+1. 계속하다
+2. 신뢰, 확신
+3. 침입하다, 난입하다</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>2, 침입하다, 난입하다</t>
+          <t>3, 침입하다, 난입하다</t>
         </is>
       </c>
     </row>
@@ -870,8 +870,8 @@
         <is>
           <t>invade
 1. 침입하다, 난입하다
-2. 나눠주다, 분배하다
-3. 계속하다</t>
+2. 생기, 활기
+3. 배열하다, 일렬로 세우다</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -884,14 +884,14 @@
       <c r="A31" t="inlineStr">
         <is>
           <t>trespass
-1. 자신감 있는
-2. 배열하다, 일렬로 세우다
-3. 침입하다, 난입하다</t>
+1. 평판 좋은, 존경할 만한
+2. 침입하다, 난입하다
+3. 자신감 있는</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>3, 침입하다, 난입하다</t>
+          <t>2, 침입하다, 난입하다</t>
         </is>
       </c>
     </row>
@@ -899,14 +899,14 @@
       <c r="A32" t="inlineStr">
         <is>
           <t>gratification
-1. 생기, 활기
-2. 만족, 희열
-3. 계속하다</t>
+1. 만족, 희열
+2. 계속하다
+3. 침입하다, 난입하다</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>2, 만족, 희열</t>
+          <t>1, 만족, 희열</t>
         </is>
       </c>
     </row>
@@ -914,9 +914,9 @@
       <c r="A33" t="inlineStr">
         <is>
           <t>satisfaction
-1. 생기, 활기
+1. 침입하다, 난입하다
 2. 만족, 희열
-3. 평판 좋은, 존경할 만한</t>
+3. 나눠주다, 분배하다</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -929,236 +929,236 @@
       <c r="A34" t="inlineStr">
         <is>
           <t>contentment
-1. 신뢰, 확신
+1. 평판 좋은, 존경할 만한
+2. 생기, 활기
+3. 만족, 희열</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>3, 만족, 희열</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>euphoria
+1. 나눠주다, 분배하다
 2. 평판 좋은, 존경할 만한
 3. 만족, 희열</t>
         </is>
       </c>
-      <c r="B34" t="inlineStr">
+      <c r="B35" t="inlineStr">
         <is>
           <t>3, 만족, 희열</t>
         </is>
       </c>
     </row>
-    <row r="35">
-      <c r="A35" t="inlineStr">
-        <is>
-          <t>euphoria
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>delight
+1. 만족, 희열
+2. 계속하다
+3. 배열하다, 일렬로 세우다</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>1, 만족, 희열</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>liveliness
+1. 신뢰, 확신
+2. 계속하다
+3. 생기, 활기</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>3, 생기, 활기</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>spring
+1. 신뢰, 확신
+2. 생기, 활기
+3. 평판 좋은, 존경할 만한</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>2, 생기, 활기</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>sparkle
+1. 만족, 희열
+2. 생기, 활기
+3. 자신감 있는</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>2, 생기, 활기</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>vivacity
+1. 생기, 활기
+2. 나눠주다, 분배하다
+3. 만족, 희열</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>1, 생기, 활기</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>vigor
+1. 고요, 평온
+2. 생기, 활기
+3. 계속하다</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>2, 생기, 활기</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>confidence
+1. 고요, 평온
+2. 계속하다
+3. 신뢰, 확신</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>3, 신뢰, 확신</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>faith
+1. 고요, 평온
+2. 만족, 희열
+3. 신뢰, 확신</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>3, 신뢰, 확신</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>credence
+1. 생기, 활기
+2. 신뢰, 확신
+3. 배열하다, 일렬로 세우다</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>2, 신뢰, 확신</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>reliance
+1. 고요, 평온
+2. 만족, 희열
+3. 신뢰, 확신</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>3, 신뢰, 확신</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>conviction
+1. 나눠주다, 분배하다
+2. 자신감 있는
+3. 신뢰, 확신</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>3, 신뢰, 확신</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>tranquility
 1. 계속하다
+2. 평판 좋은, 존경할 만한
+3. 고요, 평온</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>3, 고요, 평온</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>silence
+1. 고요, 평온
+2. 생기, 활기
+3. 자신감 있는</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>1, 고요, 평온</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>quiet
+1. 평판 좋은, 존경할 만한
 2. 만족, 희열
 3. 고요, 평온</t>
         </is>
       </c>
-      <c r="B35" t="inlineStr">
-        <is>
-          <t>2, 만족, 희열</t>
-        </is>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="inlineStr">
-        <is>
-          <t>delight
-1. 배열하다, 일렬로 세우다
-2. 자신감 있는
-3. 만족, 희열</t>
-        </is>
-      </c>
-      <c r="B36" t="inlineStr">
-        <is>
-          <t>3, 만족, 희열</t>
-        </is>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="inlineStr">
-        <is>
-          <t>liveliness
-1. 생기, 활기
-2. 침입하다, 난입하다
-3. 계속하다</t>
-        </is>
-      </c>
-      <c r="B37" t="inlineStr">
-        <is>
-          <t>1, 생기, 활기</t>
-        </is>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="inlineStr">
-        <is>
-          <t>spring
-1. 생기, 활기
-2. 침입하다, 난입하다
-3. 평판 좋은, 존경할 만한</t>
-        </is>
-      </c>
-      <c r="B38" t="inlineStr">
-        <is>
-          <t>1, 생기, 활기</t>
-        </is>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="inlineStr">
-        <is>
-          <t>sparkle
-1. 자신감 있는
-2. 생기, 활기
-3. 고요, 평온</t>
-        </is>
-      </c>
-      <c r="B39" t="inlineStr">
-        <is>
-          <t>2, 생기, 활기</t>
-        </is>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="inlineStr">
-        <is>
-          <t>vivacity
-1. 생기, 활기
-2. 고요, 평온
-3. 평판 좋은, 존경할 만한</t>
-        </is>
-      </c>
-      <c r="B40" t="inlineStr">
-        <is>
-          <t>1, 생기, 활기</t>
-        </is>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="inlineStr">
-        <is>
-          <t>vigor
-1. 생기, 활기
-2. 침입하다, 난입하다
-3. 배열하다, 일렬로 세우다</t>
-        </is>
-      </c>
-      <c r="B41" t="inlineStr">
-        <is>
-          <t>1, 생기, 활기</t>
-        </is>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" t="inlineStr">
-        <is>
-          <t>confidence
-1. 침입하다, 난입하다
-2. 나눠주다, 분배하다
-3. 신뢰, 확신</t>
-        </is>
-      </c>
-      <c r="B42" t="inlineStr">
-        <is>
-          <t>3, 신뢰, 확신</t>
-        </is>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="inlineStr">
-        <is>
-          <t>faith
-1. 계속하다
-2. 평판 좋은, 존경할 만한
-3. 신뢰, 확신</t>
-        </is>
-      </c>
-      <c r="B43" t="inlineStr">
-        <is>
-          <t>3, 신뢰, 확신</t>
-        </is>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="inlineStr">
-        <is>
-          <t>credence
-1. 신뢰, 확신
-2. 나눠주다, 분배하다
-3. 평판 좋은, 존경할 만한</t>
-        </is>
-      </c>
-      <c r="B44" t="inlineStr">
-        <is>
-          <t>1, 신뢰, 확신</t>
-        </is>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" t="inlineStr">
-        <is>
-          <t>reliance
-1. 평판 좋은, 존경할 만한
-2. 고요, 평온
-3. 신뢰, 확신</t>
-        </is>
-      </c>
-      <c r="B45" t="inlineStr">
-        <is>
-          <t>3, 신뢰, 확신</t>
-        </is>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" t="inlineStr">
-        <is>
-          <t>conviction
-1. 신뢰, 확신
-2. 나눠주다, 분배하다
-3. 침입하다, 난입하다</t>
-        </is>
-      </c>
-      <c r="B46" t="inlineStr">
-        <is>
-          <t>1, 신뢰, 확신</t>
-        </is>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" t="inlineStr">
-        <is>
-          <t>tranquility
-1. 자신감 있는
-2. 침입하다, 난입하다
-3. 고요, 평온</t>
-        </is>
-      </c>
-      <c r="B47" t="inlineStr">
-        <is>
-          <t>3, 고요, 평온</t>
-        </is>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" t="inlineStr">
-        <is>
-          <t>silence
-1. 생기, 활기
-2. 고요, 평온
-3. 배열하다, 일렬로 세우다</t>
-        </is>
-      </c>
-      <c r="B48" t="inlineStr">
-        <is>
-          <t>2, 고요, 평온</t>
-        </is>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" t="inlineStr">
-        <is>
-          <t>quiet
-1. 자신감 있는
-2. 생기, 활기
-3. 고요, 평온</t>
-        </is>
-      </c>
       <c r="B49" t="inlineStr">
         <is>
           <t>3, 고요, 평온</t>
@@ -1169,14 +1169,14 @@
       <c r="A50" t="inlineStr">
         <is>
           <t>serenity
-1. 평판 좋은, 존경할 만한
-2. 고요, 평온
-3. 나눠주다, 분배하다</t>
+1. 나눠주다, 분배하다
+2. 평판 좋은, 존경할 만한
+3. 고요, 평온</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>2, 고요, 평온</t>
+          <t>3, 고요, 평온</t>
         </is>
       </c>
     </row>
@@ -1184,14 +1184,14 @@
       <c r="A51" t="inlineStr">
         <is>
           <t>composure
-1. 신뢰, 확신
-2. 자신감 있는
-3. 고요, 평온</t>
+1. 고요, 평온
+2. 신뢰, 확신
+3. 침입하다, 난입하다</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>3, 고요, 평온</t>
+          <t>1, 고요, 평온</t>
         </is>
       </c>
     </row>

--- a/학습자료/단답형/객관식_영어_유의어_Day02.xlsx
+++ b/학습자료/단답형/객관식_영어_유의어_Day02.xlsx
@@ -451,7 +451,7 @@
           <t>reputable
 1. 평판 좋은, 존경할 만한
 2. 신뢰, 확신
-3. 계속하다</t>
+3. 생기, 활기</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -464,14 +464,14 @@
       <c r="A3" t="inlineStr">
         <is>
           <t>prestigious
-1. 평판 좋은, 존경할 만한
-2. 배열하다, 일렬로 세우다
-3. 생기, 활기</t>
+1. 침입하다, 난입하다
+2. 평판 좋은, 존경할 만한
+3. 자신감 있는</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>1, 평판 좋은, 존경할 만한</t>
+          <t>2, 평판 좋은, 존경할 만한</t>
         </is>
       </c>
     </row>
@@ -480,8 +480,8 @@
         <is>
           <t>creditable
 1. 평판 좋은, 존경할 만한
-2. 생기, 활기
-3. 나눠주다, 분배하다</t>
+2. 나눠주다, 분배하다
+3. 자신감 있는</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -494,14 +494,14 @@
       <c r="A5" t="inlineStr">
         <is>
           <t>respectable
-1. 배열하다, 일렬로 세우다
-2. 평판 좋은, 존경할 만한
-3. 계속하다</t>
+1. 평판 좋은, 존경할 만한
+2. 침입하다, 난입하다
+3. 생기, 활기</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2, 평판 좋은, 존경할 만한</t>
+          <t>1, 평판 좋은, 존경할 만한</t>
         </is>
       </c>
     </row>
@@ -509,14 +509,14 @@
       <c r="A6" t="inlineStr">
         <is>
           <t>venerable
-1. 침입하다, 난입하다
-2. 나눠주다, 분배하다
-3. 평판 좋은, 존경할 만한</t>
+1. 평판 좋은, 존경할 만한
+2. 고요, 평온
+3. 자신감 있는</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>3, 평판 좋은, 존경할 만한</t>
+          <t>1, 평판 좋은, 존경할 만한</t>
         </is>
       </c>
     </row>
@@ -524,8 +524,8 @@
       <c r="A7" t="inlineStr">
         <is>
           <t>confident
-1. 나눠주다, 분배하다
-2. 배열하다, 일렬로 세우다
+1. 침입하다, 난입하다
+2. 고요, 평온
 3. 자신감 있는</t>
         </is>
       </c>
@@ -539,14 +539,14 @@
       <c r="A8" t="inlineStr">
         <is>
           <t>assured
-1. 평판 좋은, 존경할 만한
-2. 자신감 있는
-3. 고요, 평온</t>
+1. 자신감 있는
+2. 고요, 평온
+3. 평판 좋은, 존경할 만한</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2, 자신감 있는</t>
+          <t>1, 자신감 있는</t>
         </is>
       </c>
     </row>
@@ -554,14 +554,14 @@
       <c r="A9" t="inlineStr">
         <is>
           <t>assertive
-1. 고요, 평온
-2. 자신감 있는
-3. 평판 좋은, 존경할 만한</t>
+1. 자신감 있는
+2. 생기, 활기
+3. 배열하다, 일렬로 세우다</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>2, 자신감 있는</t>
+          <t>1, 자신감 있는</t>
         </is>
       </c>
     </row>
@@ -569,14 +569,14 @@
       <c r="A10" t="inlineStr">
         <is>
           <t>sanguine
-1. 만족, 희열
-2. 자신감 있는
-3. 배열하다, 일렬로 세우다</t>
+1. 자신감 있는
+2. 평판 좋은, 존경할 만한
+3. 신뢰, 확신</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>2, 자신감 있는</t>
+          <t>1, 자신감 있는</t>
         </is>
       </c>
     </row>
@@ -585,8 +585,8 @@
         <is>
           <t>buoyant
 1. 자신감 있는
-2. 만족, 희열
-3. 평판 좋은, 존경할 만한</t>
+2. 신뢰, 확신
+3. 만족, 희열</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -599,14 +599,14 @@
       <c r="A12" t="inlineStr">
         <is>
           <t>line up
-1. 만족, 희열
-2. 고요, 평온
-3. 배열하다, 일렬로 세우다</t>
+1. 침입하다, 난입하다
+2. 배열하다, 일렬로 세우다
+3. 평판 좋은, 존경할 만한</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>3, 배열하다, 일렬로 세우다</t>
+          <t>2, 배열하다, 일렬로 세우다</t>
         </is>
       </c>
     </row>
@@ -616,7 +616,7 @@
           <t>arrange
 1. 침입하다, 난입하다
 2. 배열하다, 일렬로 세우다
-3. 나눠주다, 분배하다</t>
+3. 계속하다</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -629,7 +629,7 @@
       <c r="A14" t="inlineStr">
         <is>
           <t>array
-1. 침입하다, 난입하다
+1. 나눠주다, 분배하다
 2. 자신감 있는
 3. 배열하다, 일렬로 세우다</t>
         </is>
@@ -644,8 +644,8 @@
       <c r="A15" t="inlineStr">
         <is>
           <t>sequence
-1. 고요, 평온
-2. 나눠주다, 분배하다
+1. 나눠주다, 분배하다
+2. 평판 좋은, 존경할 만한
 3. 배열하다, 일렬로 세우다</t>
         </is>
       </c>
@@ -659,29 +659,29 @@
       <c r="A16" t="inlineStr">
         <is>
           <t>align
-1. 배열하다, 일렬로 세우다
-2. 계속하다
-3. 나눠주다, 분배하다</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>1, 배열하다, 일렬로 세우다</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>give out
 1. 나눠주다, 분배하다
 2. 생기, 활기
 3. 배열하다, 일렬로 세우다</t>
         </is>
       </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>3, 배열하다, 일렬로 세우다</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>give out
+1. 침입하다, 난입하다
+2. 나눠주다, 분배하다
+3. 생기, 활기</t>
+        </is>
+      </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>1, 나눠주다, 분배하다</t>
+          <t>2, 나눠주다, 분배하다</t>
         </is>
       </c>
     </row>
@@ -689,54 +689,54 @@
       <c r="A18" t="inlineStr">
         <is>
           <t>hand out
+1. 침입하다, 난입하다
+2. 나눠주다, 분배하다
+3. 신뢰, 확신</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>2, 나눠주다, 분배하다</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>give away
+1. 생기, 활기
+2. 나눠주다, 분배하다
+3. 신뢰, 확신</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>2, 나눠주다, 분배하다</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>deal out
+1. 자신감 있는
+2. 배열하다, 일렬로 세우다
+3. 나눠주다, 분배하다</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>3, 나눠주다, 분배하다</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>serve out
 1. 나눠주다, 분배하다
 2. 생기, 활기
-3. 평판 좋은, 존경할 만한</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>1, 나눠주다, 분배하다</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>give away
-1. 나눠주다, 분배하다
-2. 신뢰, 확신
-3. 계속하다</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>1, 나눠주다, 분배하다</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>deal out
-1. 고요, 평온
-2. 나눠주다, 분배하다
-3. 신뢰, 확신</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>2, 나눠주다, 분배하다</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>serve out
-1. 나눠주다, 분배하다
-2. 신뢰, 확신
-3. 평판 좋은, 존경할 만한</t>
+3. 고요, 평온</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -749,14 +749,14 @@
       <c r="A22" t="inlineStr">
         <is>
           <t>carry on
-1. 침입하다, 난입하다
-2. 고요, 평온
-3. 계속하다</t>
+1. 계속하다
+2. 신뢰, 확신
+3. 나눠주다, 분배하다</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>3, 계속하다</t>
+          <t>1, 계속하다</t>
         </is>
       </c>
     </row>
@@ -764,14 +764,14 @@
       <c r="A23" t="inlineStr">
         <is>
           <t>keep on
-1. 계속하다
-2. 생기, 활기
-3. 평판 좋은, 존경할 만한</t>
+1. 침입하다, 난입하다
+2. 배열하다, 일렬로 세우다
+3. 계속하다</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>1, 계속하다</t>
+          <t>3, 계속하다</t>
         </is>
       </c>
     </row>
@@ -781,7 +781,7 @@
           <t>go on
 1. 신뢰, 확신
 2. 계속하다
-3. 생기, 활기</t>
+3. 만족, 희열</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -794,14 +794,14 @@
       <c r="A25" t="inlineStr">
         <is>
           <t>stick at
-1. 신뢰, 확신
-2. 고요, 평온
-3. 계속하다</t>
+1. 계속하다
+2. 침입하다, 난입하다
+3. 만족, 희열</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>3, 계속하다</t>
+          <t>1, 계속하다</t>
         </is>
       </c>
     </row>
@@ -809,14 +809,14 @@
       <c r="A26" t="inlineStr">
         <is>
           <t>continue
-1. 생기, 활기
-2. 평판 좋은, 존경할 만한
-3. 계속하다</t>
+1. 계속하다
+2. 자신감 있는
+3. 생기, 활기</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>3, 계속하다</t>
+          <t>1, 계속하다</t>
         </is>
       </c>
     </row>
@@ -824,14 +824,14 @@
       <c r="A27" t="inlineStr">
         <is>
           <t>break out
-1. 배열하다, 일렬로 세우다
-2. 침입하다, 난입하다
-3. 만족, 희열</t>
+1. 계속하다
+2. 나눠주다, 분배하다
+3. 침입하다, 난입하다</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>2, 침입하다, 난입하다</t>
+          <t>3, 침입하다, 난입하다</t>
         </is>
       </c>
     </row>
@@ -839,14 +839,14 @@
       <c r="A28" t="inlineStr">
         <is>
           <t>burst into
-1. 침입하다, 난입하다
-2. 생기, 활기
-3. 고요, 평온</t>
+1. 나눠주다, 분배하다
+2. 배열하다, 일렬로 세우다
+3. 침입하다, 난입하다</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>1, 침입하다, 난입하다</t>
+          <t>3, 침입하다, 난입하다</t>
         </is>
       </c>
     </row>
@@ -854,44 +854,44 @@
       <c r="A29" t="inlineStr">
         <is>
           <t>rush into
-1. 계속하다
+1. 평판 좋은, 존경할 만한
+2. 침입하다, 난입하다
+3. 배열하다, 일렬로 세우다</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>2, 침입하다, 난입하다</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>invade
+1. 자신감 있는
+2. 생기, 활기
+3. 침입하다, 난입하다</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>3, 침입하다, 난입하다</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>trespass
+1. 나눠주다, 분배하다
 2. 신뢰, 확신
 3. 침입하다, 난입하다</t>
         </is>
       </c>
-      <c r="B29" t="inlineStr">
+      <c r="B31" t="inlineStr">
         <is>
           <t>3, 침입하다, 난입하다</t>
-        </is>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="inlineStr">
-        <is>
-          <t>invade
-1. 침입하다, 난입하다
-2. 생기, 활기
-3. 배열하다, 일렬로 세우다</t>
-        </is>
-      </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>1, 침입하다, 난입하다</t>
-        </is>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="inlineStr">
-        <is>
-          <t>trespass
-1. 평판 좋은, 존경할 만한
-2. 침입하다, 난입하다
-3. 자신감 있는</t>
-        </is>
-      </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>2, 침입하다, 난입하다</t>
         </is>
       </c>
     </row>
@@ -900,8 +900,8 @@
         <is>
           <t>gratification
 1. 만족, 희열
-2. 계속하다
-3. 침입하다, 난입하다</t>
+2. 자신감 있는
+3. 계속하다</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -915,13 +915,13 @@
         <is>
           <t>satisfaction
 1. 침입하다, 난입하다
-2. 만족, 희열
-3. 나눠주다, 분배하다</t>
+2. 평판 좋은, 존경할 만한
+3. 만족, 희열</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>2, 만족, 희열</t>
+          <t>3, 만족, 희열</t>
         </is>
       </c>
     </row>
@@ -929,8 +929,8 @@
       <c r="A34" t="inlineStr">
         <is>
           <t>contentment
-1. 평판 좋은, 존경할 만한
-2. 생기, 활기
+1. 계속하다
+2. 평판 좋은, 존경할 만한
 3. 만족, 희열</t>
         </is>
       </c>
@@ -944,14 +944,14 @@
       <c r="A35" t="inlineStr">
         <is>
           <t>euphoria
-1. 나눠주다, 분배하다
-2. 평판 좋은, 존경할 만한
-3. 만족, 희열</t>
+1. 신뢰, 확신
+2. 만족, 희열
+3. 생기, 활기</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>3, 만족, 희열</t>
+          <t>2, 만족, 희열</t>
         </is>
       </c>
     </row>
@@ -959,14 +959,14 @@
       <c r="A36" t="inlineStr">
         <is>
           <t>delight
-1. 만족, 희열
-2. 계속하다
-3. 배열하다, 일렬로 세우다</t>
+1. 자신감 있는
+2. 만족, 희열
+3. 침입하다, 난입하다</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>1, 만족, 희열</t>
+          <t>2, 만족, 희열</t>
         </is>
       </c>
     </row>
@@ -974,59 +974,59 @@
       <c r="A37" t="inlineStr">
         <is>
           <t>liveliness
+1. 고요, 평온
+2. 만족, 희열
+3. 생기, 활기</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>3, 생기, 활기</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>spring
+1. 생기, 활기
+2. 자신감 있는
+3. 배열하다, 일렬로 세우다</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>1, 생기, 활기</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>sparkle
+1. 자신감 있는
+2. 생기, 활기
+3. 계속하다</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>2, 생기, 활기</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>vivacity
 1. 신뢰, 확신
 2. 계속하다
 3. 생기, 활기</t>
         </is>
       </c>
-      <c r="B37" t="inlineStr">
+      <c r="B40" t="inlineStr">
         <is>
           <t>3, 생기, 활기</t>
-        </is>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="inlineStr">
-        <is>
-          <t>spring
-1. 신뢰, 확신
-2. 생기, 활기
-3. 평판 좋은, 존경할 만한</t>
-        </is>
-      </c>
-      <c r="B38" t="inlineStr">
-        <is>
-          <t>2, 생기, 활기</t>
-        </is>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="inlineStr">
-        <is>
-          <t>sparkle
-1. 만족, 희열
-2. 생기, 활기
-3. 자신감 있는</t>
-        </is>
-      </c>
-      <c r="B39" t="inlineStr">
-        <is>
-          <t>2, 생기, 활기</t>
-        </is>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="inlineStr">
-        <is>
-          <t>vivacity
-1. 생기, 활기
-2. 나눠주다, 분배하다
-3. 만족, 희열</t>
-        </is>
-      </c>
-      <c r="B40" t="inlineStr">
-        <is>
-          <t>1, 생기, 활기</t>
         </is>
       </c>
     </row>
@@ -1034,9 +1034,9 @@
       <c r="A41" t="inlineStr">
         <is>
           <t>vigor
-1. 고요, 평온
+1. 침입하다, 난입하다
 2. 생기, 활기
-3. 계속하다</t>
+3. 나눠주다, 분배하다</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -1049,14 +1049,14 @@
       <c r="A42" t="inlineStr">
         <is>
           <t>confidence
-1. 고요, 평온
-2. 계속하다
-3. 신뢰, 확신</t>
+1. 신뢰, 확신
+2. 평판 좋은, 존경할 만한
+3. 침입하다, 난입하다</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>3, 신뢰, 확신</t>
+          <t>1, 신뢰, 확신</t>
         </is>
       </c>
     </row>
@@ -1064,14 +1064,14 @@
       <c r="A43" t="inlineStr">
         <is>
           <t>faith
-1. 고요, 평온
-2. 만족, 희열
-3. 신뢰, 확신</t>
+1. 만족, 희열
+2. 신뢰, 확신
+3. 생기, 활기</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>3, 신뢰, 확신</t>
+          <t>2, 신뢰, 확신</t>
         </is>
       </c>
     </row>
@@ -1079,9 +1079,9 @@
       <c r="A44" t="inlineStr">
         <is>
           <t>credence
-1. 생기, 활기
+1. 자신감 있는
 2. 신뢰, 확신
-3. 배열하다, 일렬로 세우다</t>
+3. 고요, 평온</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -1094,8 +1094,8 @@
       <c r="A45" t="inlineStr">
         <is>
           <t>reliance
-1. 고요, 평온
-2. 만족, 희열
+1. 자신감 있는
+2. 나눠주다, 분배하다
 3. 신뢰, 확신</t>
         </is>
       </c>
@@ -1109,14 +1109,14 @@
       <c r="A46" t="inlineStr">
         <is>
           <t>conviction
-1. 나눠주다, 분배하다
-2. 자신감 있는
-3. 신뢰, 확신</t>
+1. 신뢰, 확신
+2. 만족, 희열
+3. 나눠주다, 분배하다</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>3, 신뢰, 확신</t>
+          <t>1, 신뢰, 확신</t>
         </is>
       </c>
     </row>
@@ -1124,14 +1124,14 @@
       <c r="A47" t="inlineStr">
         <is>
           <t>tranquility
-1. 계속하다
-2. 평판 좋은, 존경할 만한
-3. 고요, 평온</t>
+1. 고요, 평온
+2. 배열하다, 일렬로 세우다
+3. 생기, 활기</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>3, 고요, 평온</t>
+          <t>1, 고요, 평온</t>
         </is>
       </c>
     </row>
@@ -1140,8 +1140,8 @@
         <is>
           <t>silence
 1. 고요, 평온
-2. 생기, 활기
-3. 자신감 있는</t>
+2. 평판 좋은, 존경할 만한
+3. 침입하다, 난입하다</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -1154,8 +1154,8 @@
       <c r="A49" t="inlineStr">
         <is>
           <t>quiet
-1. 평판 좋은, 존경할 만한
-2. 만족, 희열
+1. 생기, 활기
+2. 배열하다, 일렬로 세우다
 3. 고요, 평온</t>
         </is>
       </c>
@@ -1169,14 +1169,14 @@
       <c r="A50" t="inlineStr">
         <is>
           <t>serenity
-1. 나눠주다, 분배하다
-2. 평판 좋은, 존경할 만한
-3. 고요, 평온</t>
+1. 평판 좋은, 존경할 만한
+2. 고요, 평온
+3. 침입하다, 난입하다</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>3, 고요, 평온</t>
+          <t>2, 고요, 평온</t>
         </is>
       </c>
     </row>
@@ -1184,14 +1184,14 @@
       <c r="A51" t="inlineStr">
         <is>
           <t>composure
-1. 고요, 평온
-2. 신뢰, 확신
-3. 침입하다, 난입하다</t>
+1. 침입하다, 난입하다
+2. 자신감 있는
+3. 고요, 평온</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>1, 고요, 평온</t>
+          <t>3, 고요, 평온</t>
         </is>
       </c>
     </row>

--- a/학습자료/단답형/객관식_영어_유의어_Day02.xlsx
+++ b/학습자료/단답형/객관식_영어_유의어_Day02.xlsx
@@ -449,14 +449,14 @@
       <c r="A2" t="inlineStr">
         <is>
           <t>reputable
-1. 평판 좋은, 존경할 만한
-2. 신뢰, 확신
-3. 생기, 활기</t>
+1. 만족, 희열
+2. 평판 좋은, 존경할 만한
+3. 침입하다, 난입하다</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>1, 평판 좋은, 존경할 만한</t>
+          <t>2, 평판 좋은, 존경할 만한</t>
         </is>
       </c>
     </row>
@@ -464,9 +464,9 @@
       <c r="A3" t="inlineStr">
         <is>
           <t>prestigious
-1. 침입하다, 난입하다
+1. 고요, 평온
 2. 평판 좋은, 존경할 만한
-3. 자신감 있는</t>
+3. 신뢰, 확신</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -479,14 +479,14 @@
       <c r="A4" t="inlineStr">
         <is>
           <t>creditable
-1. 평판 좋은, 존경할 만한
-2. 나눠주다, 분배하다
-3. 자신감 있는</t>
+1. 배열하다, 일렬로 세우다
+2. 자신감 있는
+3. 평판 좋은, 존경할 만한</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>1, 평판 좋은, 존경할 만한</t>
+          <t>3, 평판 좋은, 존경할 만한</t>
         </is>
       </c>
     </row>
@@ -495,8 +495,8 @@
         <is>
           <t>respectable
 1. 평판 좋은, 존경할 만한
-2. 침입하다, 난입하다
-3. 생기, 활기</t>
+2. 계속하다
+3. 침입하다, 난입하다</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -510,8 +510,8 @@
         <is>
           <t>venerable
 1. 평판 좋은, 존경할 만한
-2. 고요, 평온
-3. 자신감 있는</t>
+2. 배열하다, 일렬로 세우다
+3. 신뢰, 확신</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -524,14 +524,14 @@
       <c r="A7" t="inlineStr">
         <is>
           <t>confident
-1. 침입하다, 난입하다
-2. 고요, 평온
-3. 자신감 있는</t>
+1. 자신감 있는
+2. 배열하다, 일렬로 세우다
+3. 생기, 활기</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>3, 자신감 있는</t>
+          <t>1, 자신감 있는</t>
         </is>
       </c>
     </row>
@@ -540,8 +540,8 @@
         <is>
           <t>assured
 1. 자신감 있는
-2. 고요, 평온
-3. 평판 좋은, 존경할 만한</t>
+2. 배열하다, 일렬로 세우다
+3. 고요, 평온</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -554,14 +554,14 @@
       <c r="A9" t="inlineStr">
         <is>
           <t>assertive
-1. 자신감 있는
-2. 생기, 활기
-3. 배열하다, 일렬로 세우다</t>
+1. 나눠주다, 분배하다
+2. 자신감 있는
+3. 만족, 희열</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>1, 자신감 있는</t>
+          <t>2, 자신감 있는</t>
         </is>
       </c>
     </row>
@@ -570,8 +570,8 @@
         <is>
           <t>sanguine
 1. 자신감 있는
-2. 평판 좋은, 존경할 만한
-3. 신뢰, 확신</t>
+2. 만족, 희열
+3. 계속하다</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -584,14 +584,14 @@
       <c r="A11" t="inlineStr">
         <is>
           <t>buoyant
-1. 자신감 있는
-2. 신뢰, 확신
-3. 만족, 희열</t>
+1. 나눠주다, 분배하다
+2. 계속하다
+3. 자신감 있는</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>1, 자신감 있는</t>
+          <t>3, 자신감 있는</t>
         </is>
       </c>
     </row>
@@ -599,9 +599,9 @@
       <c r="A12" t="inlineStr">
         <is>
           <t>line up
-1. 침입하다, 난입하다
+1. 자신감 있는
 2. 배열하다, 일렬로 세우다
-3. 평판 좋은, 존경할 만한</t>
+3. 침입하다, 난입하다</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -614,14 +614,14 @@
       <c r="A13" t="inlineStr">
         <is>
           <t>arrange
-1. 침입하다, 난입하다
-2. 배열하다, 일렬로 세우다
-3. 계속하다</t>
+1. 배열하다, 일렬로 세우다
+2. 계속하다
+3. 평판 좋은, 존경할 만한</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>2, 배열하다, 일렬로 세우다</t>
+          <t>1, 배열하다, 일렬로 세우다</t>
         </is>
       </c>
     </row>
@@ -629,59 +629,59 @@
       <c r="A14" t="inlineStr">
         <is>
           <t>array
-1. 나눠주다, 분배하다
+1. 배열하다, 일렬로 세우다
+2. 나눠주다, 분배하다
+3. 계속하다</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>1, 배열하다, 일렬로 세우다</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>sequence
+1. 생기, 활기
+2. 계속하다
+3. 배열하다, 일렬로 세우다</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>3, 배열하다, 일렬로 세우다</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>align
+1. 고요, 평온
 2. 자신감 있는
 3. 배열하다, 일렬로 세우다</t>
         </is>
       </c>
-      <c r="B14" t="inlineStr">
+      <c r="B16" t="inlineStr">
         <is>
           <t>3, 배열하다, 일렬로 세우다</t>
         </is>
       </c>
     </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>sequence
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>give out
 1. 나눠주다, 분배하다
 2. 평판 좋은, 존경할 만한
 3. 배열하다, 일렬로 세우다</t>
         </is>
       </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>3, 배열하다, 일렬로 세우다</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>align
-1. 나눠주다, 분배하다
-2. 생기, 활기
-3. 배열하다, 일렬로 세우다</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>3, 배열하다, 일렬로 세우다</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>give out
-1. 침입하다, 난입하다
-2. 나눠주다, 분배하다
-3. 생기, 활기</t>
-        </is>
-      </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>2, 나눠주다, 분배하다</t>
+          <t>1, 나눠주다, 분배하다</t>
         </is>
       </c>
     </row>
@@ -689,14 +689,14 @@
       <c r="A18" t="inlineStr">
         <is>
           <t>hand out
-1. 침입하다, 난입하다
-2. 나눠주다, 분배하다
-3. 신뢰, 확신</t>
+1. 나눠주다, 분배하다
+2. 배열하다, 일렬로 세우다
+3. 평판 좋은, 존경할 만한</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>2, 나눠주다, 분배하다</t>
+          <t>1, 나눠주다, 분배하다</t>
         </is>
       </c>
     </row>
@@ -706,7 +706,7 @@
           <t>give away
 1. 생기, 활기
 2. 나눠주다, 분배하다
-3. 신뢰, 확신</t>
+3. 평판 좋은, 존경할 만한</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -719,8 +719,8 @@
       <c r="A20" t="inlineStr">
         <is>
           <t>deal out
-1. 자신감 있는
-2. 배열하다, 일렬로 세우다
+1. 만족, 희열
+2. 계속하다
 3. 나눠주다, 분배하다</t>
         </is>
       </c>
@@ -734,14 +734,14 @@
       <c r="A21" t="inlineStr">
         <is>
           <t>serve out
-1. 나눠주다, 분배하다
-2. 생기, 활기
-3. 고요, 평온</t>
+1. 신뢰, 확신
+2. 침입하다, 난입하다
+3. 나눠주다, 분배하다</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>1, 나눠주다, 분배하다</t>
+          <t>3, 나눠주다, 분배하다</t>
         </is>
       </c>
     </row>
@@ -749,14 +749,14 @@
       <c r="A22" t="inlineStr">
         <is>
           <t>carry on
-1. 계속하다
-2. 신뢰, 확신
-3. 나눠주다, 분배하다</t>
+1. 배열하다, 일렬로 세우다
+2. 평판 좋은, 존경할 만한
+3. 계속하다</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>1, 계속하다</t>
+          <t>3, 계속하다</t>
         </is>
       </c>
     </row>
@@ -764,14 +764,14 @@
       <c r="A23" t="inlineStr">
         <is>
           <t>keep on
-1. 침입하다, 난입하다
-2. 배열하다, 일렬로 세우다
-3. 계속하다</t>
+1. 자신감 있는
+2. 계속하다
+3. 나눠주다, 분배하다</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>3, 계속하다</t>
+          <t>2, 계속하다</t>
         </is>
       </c>
     </row>
@@ -779,14 +779,14 @@
       <c r="A24" t="inlineStr">
         <is>
           <t>go on
-1. 신뢰, 확신
-2. 계속하다
-3. 만족, 희열</t>
+1. 계속하다
+2. 배열하다, 일렬로 세우다
+3. 신뢰, 확신</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>2, 계속하다</t>
+          <t>1, 계속하다</t>
         </is>
       </c>
     </row>
@@ -794,329 +794,327 @@
       <c r="A25" t="inlineStr">
         <is>
           <t>stick at
+1. 계속하다
+2. 나눠주다, 분배하다
+3. 고요, 평온</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>1, 계속하다</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>continue
+1. 고요, 평온
+2. 자신감 있는
+3. 계속하다</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>3, 계속하다</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>break out
+1. 배열하다, 일렬로 세우다
+2. 침입하다, 난입</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>2, 침입하다, 난입하다</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>burst into
+1. 고요, 평온
+2. 만족, 희열
+3. 침입하다, 난입하다</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>3, 침입하다, 난입하다</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>rush into
+1. 침입하다, 난입하다
+2. 만족, 희열
+3. 자신감 있는</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>1, 침입하다, 난입하다</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>invade
+1. 고요, 평온
+2. 계속하다
+3. 침입하다, 난입하다</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>3, 침입하다, 난입하다</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>trespass
+1. 만족, 희열
+2. 생기, 활기
+3. 침입하다, 난입하다</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>3, 침입하다, 난입하다</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>gratification
+1. 평판 좋은, 존경할 만한
+2. 만족, 희열
+3. 나눠주다, 분배하다</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>2, 만족, 희열</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>satisfaction
 1. 계속하다
 2. 침입하다, 난입하다
 3. 만족, 희열</t>
         </is>
       </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>1, 계속하다</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>continue
-1. 계속하다
-2. 자신감 있는
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>3, 만족, 희열</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>contentment
+1. 고요, 평온
+2. 나눠주다, 분배하다
+3. 만족, 희열</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>3, 만족, 희열</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>euphoria
+1. 배열하다, 일렬로 세우다
+2. 침입하다, 난입하다
+3. 만족, 희열</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>3, 만족, 희열</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>delight
+1. 나눠주다, 분배하다
+2. 만족, 희열
+3. 평판 좋은, 존경할 만한</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>2, 만족, 희열</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>liveliness
+1. 생기, 활기
+2. 고요</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>1, 생기, 활기</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>spring
+1. 고요, 평온
+2. 생기, 활기
+3. 평판 좋은, 존경할 만한</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>2, 생기, 활기</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>sparkle
+1. 배열하다, 일렬로 세우다
+2. 평판 좋은, 존경할 만한
 3. 생기, 활기</t>
         </is>
       </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>1, 계속하다</t>
-        </is>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>break out
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>3, 생기, 활기</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>vivacity
+1. 평판 좋은, 존경할 만한
+2. 생기, 활기
+3. 침입하다, 난입하다</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>2, 생기, 활기</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>vigor
+1. 나눠주다, 분배하다
+2. 배열하다, 일렬로 세우다
+3. 생기, 활기</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>3, 생기, 활기</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>confidence
+1. 고요, 평온
+2. 신뢰, 확신
+3. 평판 좋은, 존경할 만한</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>2, 신뢰, 확신</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>faith
+1. 신뢰, 확신
+2. 만족, 희열
+3. 배열하다, 일렬로 세우다</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>1, 신뢰, 확신</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>credence
+1. 만족, 희열
+2. 고요, 평온
+3. 신뢰, 확신</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>3, 신뢰, 확신</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>reliance
+1. 생기, 활기
+2. 신뢰, 확신
+3. 자신감 있는</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>2, 신뢰, 확신</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>conviction
 1. 계속하다
 2. 나눠주다, 분배하다
-3. 침입하다, 난입하다</t>
-        </is>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>3, 침입하다, 난입하다</t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>burst into
-1. 나눠주다, 분배하다
-2. 배열하다, 일렬로 세우다
-3. 침입하다, 난입하다</t>
-        </is>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>3, 침입하다, 난입하다</t>
-        </is>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>rush into
-1. 평판 좋은, 존경할 만한
-2. 침입하다, 난입하다
-3. 배열하다, 일렬로 세우다</t>
-        </is>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>2, 침입하다, 난입하다</t>
-        </is>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="inlineStr">
-        <is>
-          <t>invade
-1. 자신감 있는
-2. 생기, 활기
-3. 침입하다, 난입하다</t>
-        </is>
-      </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>3, 침입하다, 난입하다</t>
-        </is>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="inlineStr">
-        <is>
-          <t>trespass
-1. 나눠주다, 분배하다
-2. 신뢰, 확신
-3. 침입하다, 난입하다</t>
-        </is>
-      </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>3, 침입하다, 난입하다</t>
-        </is>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
-        <is>
-          <t>gratification
-1. 만족, 희열
-2. 자신감 있는
-3. 계속하다</t>
-        </is>
-      </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>1, 만족, 희열</t>
-        </is>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="inlineStr">
-        <is>
-          <t>satisfaction
-1. 침입하다, 난입하다
-2. 평판 좋은, 존경할 만한
-3. 만족, 희열</t>
-        </is>
-      </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>3, 만족, 희열</t>
-        </is>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="inlineStr">
-        <is>
-          <t>contentment
-1. 계속하다
-2. 평판 좋은, 존경할 만한
-3. 만족, 희열</t>
-        </is>
-      </c>
-      <c r="B34" t="inlineStr">
-        <is>
-          <t>3, 만족, 희열</t>
-        </is>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="inlineStr">
-        <is>
-          <t>euphoria
-1. 신뢰, 확신
-2. 만족, 희열
-3. 생기, 활기</t>
-        </is>
-      </c>
-      <c r="B35" t="inlineStr">
-        <is>
-          <t>2, 만족, 희열</t>
-        </is>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="inlineStr">
-        <is>
-          <t>delight
-1. 자신감 있는
-2. 만족, 희열
-3. 침입하다, 난입하다</t>
-        </is>
-      </c>
-      <c r="B36" t="inlineStr">
-        <is>
-          <t>2, 만족, 희열</t>
-        </is>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="inlineStr">
-        <is>
-          <t>liveliness
-1. 고요, 평온
-2. 만족, 희열
-3. 생기, 활기</t>
-        </is>
-      </c>
-      <c r="B37" t="inlineStr">
-        <is>
-          <t>3, 생기, 활기</t>
-        </is>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="inlineStr">
-        <is>
-          <t>spring
-1. 생기, 활기
-2. 자신감 있는
-3. 배열하다, 일렬로 세우다</t>
-        </is>
-      </c>
-      <c r="B38" t="inlineStr">
-        <is>
-          <t>1, 생기, 활기</t>
-        </is>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="inlineStr">
-        <is>
-          <t>sparkle
-1. 자신감 있는
-2. 생기, 활기
-3. 계속하다</t>
-        </is>
-      </c>
-      <c r="B39" t="inlineStr">
-        <is>
-          <t>2, 생기, 활기</t>
-        </is>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="inlineStr">
-        <is>
-          <t>vivacity
-1. 신뢰, 확신
-2. 계속하다
-3. 생기, 활기</t>
-        </is>
-      </c>
-      <c r="B40" t="inlineStr">
-        <is>
-          <t>3, 생기, 활기</t>
-        </is>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="inlineStr">
-        <is>
-          <t>vigor
-1. 침입하다, 난입하다
-2. 생기, 활기
-3. 나눠주다, 분배하다</t>
-        </is>
-      </c>
-      <c r="B41" t="inlineStr">
-        <is>
-          <t>2, 생기, 활기</t>
-        </is>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" t="inlineStr">
-        <is>
-          <t>confidence
-1. 신뢰, 확신
-2. 평판 좋은, 존경할 만한
-3. 침입하다, 난입하다</t>
-        </is>
-      </c>
-      <c r="B42" t="inlineStr">
-        <is>
-          <t>1, 신뢰, 확신</t>
-        </is>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="inlineStr">
-        <is>
-          <t>faith
-1. 만족, 희열
-2. 신뢰, 확신
-3. 생기, 활기</t>
-        </is>
-      </c>
-      <c r="B43" t="inlineStr">
-        <is>
-          <t>2, 신뢰, 확신</t>
-        </is>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="inlineStr">
-        <is>
-          <t>credence
-1. 자신감 있는
-2. 신뢰, 확신
-3. 고요, 평온</t>
-        </is>
-      </c>
-      <c r="B44" t="inlineStr">
-        <is>
-          <t>2, 신뢰, 확신</t>
-        </is>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" t="inlineStr">
-        <is>
-          <t>reliance
-1. 자신감 있는
-2. 나눠주다, 분배하다
 3. 신뢰, 확신</t>
         </is>
       </c>
-      <c r="B45" t="inlineStr">
+      <c r="B46" t="inlineStr">
         <is>
           <t>3, 신뢰, 확신</t>
-        </is>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" t="inlineStr">
-        <is>
-          <t>conviction
-1. 신뢰, 확신
-2. 만족, 희열
-3. 나눠주다, 분배하다</t>
-        </is>
-      </c>
-      <c r="B46" t="inlineStr">
-        <is>
-          <t>1, 신뢰, 확신</t>
         </is>
       </c>
     </row>
@@ -1124,14 +1122,14 @@
       <c r="A47" t="inlineStr">
         <is>
           <t>tranquility
-1. 고요, 평온
-2. 배열하다, 일렬로 세우다
-3. 생기, 활기</t>
+1. 신뢰, 확신
+2. 고요, 평온
+3. 계속하다</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>1, 고요, 평온</t>
+          <t>2, 고요, 평온</t>
         </is>
       </c>
     </row>
@@ -1154,38 +1152,38 @@
       <c r="A49" t="inlineStr">
         <is>
           <t>quiet
+1. 평판 좋은, 존경할 만한
+2. 계속하다
+3. 고요, 평온</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>3, 고요, 평온</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>serenity
+1. 고요, 평온
+2. 평판 좋은, 존경할 만한
+3. 만족, 희열</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>1, 고요, 평온</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>composure
 1. 생기, 활기
 2. 배열하다, 일렬로 세우다
-3. 고요, 평온</t>
-        </is>
-      </c>
-      <c r="B49" t="inlineStr">
-        <is>
-          <t>3, 고요, 평온</t>
-        </is>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" t="inlineStr">
-        <is>
-          <t>serenity
-1. 평판 좋은, 존경할 만한
-2. 고요, 평온
-3. 침입하다, 난입하다</t>
-        </is>
-      </c>
-      <c r="B50" t="inlineStr">
-        <is>
-          <t>2, 고요, 평온</t>
-        </is>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" t="inlineStr">
-        <is>
-          <t>composure
-1. 침입하다, 난입하다
-2. 자신감 있는
 3. 고요, 평온</t>
         </is>
       </c>
